--- a/literature_research/FS_scopus/FS_bioculture.xlsx
+++ b/literature_research/FS_scopus/FS_bioculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
+          <t>“We grow earth”: performing eco-agrarian citizenship at the semi-periphery of Europe</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
+          <t>Peasant studies have long demonstrated the historical contribution of peasants to the stewardship of earth’s commons. We enter the debate on ecological citizenship through a concern for environmental and food justice/sovereignty, two scholarly fields that have rarely been connected despite their theoretical complementarity. We argue that peasants have historically acted as eco-citizens, even if they still have to reclaim their political status as citizens with rights. We focus on the labor practices and advocacy efforts of peasants in Romania and Portugal and analyze their testimonies to identify rural civic engagements as acts of planetary eco-citizenship based on interdependence and care. Building on Wittman´s concept of agrarian citizenship, we look at three dimensions of collective action–peasant agroecology, seed sovereignty and re-localization of food–as political acts which expand prevailing visions of eco-citizenship by de-centering urban and national spaces as the locus of civic engagement and the promotion of transnational political action. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -512,15 +512,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
+          <t>Pioneering Communities in Dissemination of Local Wheat Varieties and Products in Turkey; [Türkiye'de Yerel Buğday Çeşitlerinin ve Ürünlerinin Yaygınlaştırılmasında Öncü Topluluklar]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
+          <t>Modern wheat varieties developed since the 1960s have increased yields but have also brought with them serious ecological, social and health problems. Local wheat varieties must be produced, developed, conserved and disseminated by farmers. In this research the pioneering farmer/consumer communities in Çanakkale, Balıkesir and Kars provinces and some community supported agriculture groups in Izmir province active in dissemination of local wheat varieties and breads and other products are examined. Participatory action research methodology was used among producer groups and food communities. The research question was developed through common problems and solutions by involving producers and consumers during the field research in line with participatory action research. The local wheat production of producer groups and the processes of supplying their products to the market were carefully analyzed and this information was shared with food groups. In the food groups, ways to increase the consumption of local wheat products were sought with the information shared. As a result, it is seen that pioneer groups that ensure direct marketing of products from farmers to consumers, organize farmers, work holistically and increase women's participation are more successful in the geographical dissemination of local wheat varieties and ensuring seed sovereignty. In consumer groups, it was observed that understanding the production process and identifying problems related to consumption through focus group studies initially increased the consumption of local wheat products. However, the high cost of bread made from local wheat varieties constitutes one of the biggest obstacles. Collaboration between consumers and food groups with local producers can increase the spread of the production and consumption of local wheat. Local governments can also play an important role in promoting local wheat and its products. One of these supports could be participatory plant breeding. © 2024 Namik Kemal University - Agricultural Faculty. All rights reserved.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -548,15 +548,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
+          <t>TOWARDS FOOD SOVEREIGNTY: THE ROLE OF SMALLHOLDER FARMERS’ SEED SECURITY IN IMPROVING CLIMATE CHANGE RESILIENCE IN NORTHERN MALAWI</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
+          <t>With climate extreme events increasing in frequency and intensity in Malawi, the future of local food production faces serious threats, necessitating renewed efforts to build the adaptive capabilities of the majority poor smallholder farmers. In this context, seed security is critical to improving rural livelihoods and agrobiodiversity; however, knowledge of its role in climate change resilience is sparse. Drawing insights from vulnerability and resilience literature, this paper examines the role of seed security in enhancing climate change resilience in northern Malawi. Using a cross-sectional survey of 1,090 smallholder farmers and applying logistic regression analysis, the study found that households that are seed-secure were significantly more likely to report stronger resilience to climate change than those that were not seed-secure, even after controlling for theoretically relevant variables (OR = 1.89; p &lt;.01). Other noteworthy predictors of climate change resilience included level of education, wealth, agroecological practice, and seed sources. Based on the findings, we advocate for promoting seed security as part of broader localized and place-specific action plans to foster resilience to climate change in agricultural regions. © Copyright © 2024 by the American Geographical Society of New York.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -584,15 +584,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Policies and practices of central and sub-national governments for seed commons formation in Japan: will the seeds of the varieties collected and developed be shared?</t>
+          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Proponents of agroecology and food sovereignty are trying to form seed commons as a framework against the formal seed systems established by governments. However, we argue that the formation of seed commons should not be considered as a dichotomy that distinguishes between the government and stakeholders, including farmers, but rather as a dichotomy that divides the scope of activities into those regulated by law and those that can be determined by farmers at their own discretion. Japan, like many other countries, is a signatory to the International Treaty on Plant Genetic Resources for Food and Agriculture and the International Union for the Protection of New Varieties of Plants, both of which contain important elements for the conservation of agricultural biodiversity and agroecology at the national and local level. Based on the proposed dichotomy, this study aims to explore the possibility of creating seed commons for seed sharing in Japan. We clarify the policies and actual conditions surrounding the access and use of seeds and explore the possibility of creating seed commons. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -620,15 +620,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Let’s Reclaim Our Food Sovereignty and Reject the Industrial Food System!</t>
+          <t>Fields of contestation and contamination: Maize seeds, agroecology and the (de)coloniality of agriculture in Malawi and South Africa</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>African food systems are a rich and varied tapestry of production systems, crops, seed, territorial markets, cultures, biodiversity and ecologies. As the UN Food Systems Summit worked to retrench the many pathologies that have systematically eroded African food systems, African civil society organizations mobilized to push back. In the African regional people’s countermobilization, participatory dialogues opened space for continent-wide articulations of a future built on peoples’ choices and control of natural resources, territorially-embedded solutions, the human rights of all, family farming, and peasant agroecology. © 2021, Society for International Development.</t>
+          <t>Farmer-managed seed systems and the conservation of agrobiodiversity are increasingly recognized as important components of food and seed sovereignty. In contrast, hybrid, genetically modified (GM), and, increasingly, gene-edited crops continue to be promoted by Green Revolution proponents as a “climate smart” package that includes fertilizers, pesticides, purchased seeds, and links to global markets. Influencing seed laws and policies to support the uptake of modern crop varieties has been a key entry point in many countries, facilitated by networks of foreign donors, philanthropists, governments, and multinational companies. Using the case of South Africa, where GM crops have been grown for several decades, we provide insights on implications for Malawi, which passed a Seed Act in 2022, implicitly supporting GM crops. Both countries have histories of colonial agriculture with strong policy support for modern, hybrid varieties of maize, and the replacement (and displacement) of local, open-pollinated maize varieties. In South Africa, several studies have revealed the contamination of smallholder fields and seed systems. Through a political ecology lens, we explore how maize and its cotechnologies were commodified in South Africa and Malawi, and what South African experiences of GM crop adoption in smallholder farming systems can tell us about the challenges to be faced by smallholder Malawian farmers. We reveal how colonial histories and ongoing colonialities of power, knowledge, being, and nature continue to shape the character and form of agriculture in both countries, running counter to the needs of agroecological smallholder farmers and their ways of knowing and being. We conclude by envisioning what reimagined, transformed and decolonial approaches for food and agriculture might look like on the African continent, and how they might contribute toward the attainment of food and seed sovereignty and an agroecological future. Copyright: © 2024 The Author(s).</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -656,15 +656,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
+          <t>The seeds are coming home: a rising movement for Indigenous seed rematriation in the United States</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
+          <t>Seed rematriation is a rising movement within greater efforts to improve seed and food sovereignty for Native American communities in the United States. As a feminized reframing of repatriation, rematriation seeks to heal Indigenous relationships with food, seeds, and landscapes. Since first contact, Native agricultural practices have been systematically targeted by colonization, resulting in the diminished biodiversity of cultural gardening systems. Of this vast wealth, many varieties exist today solely under the stewardship of non-Native institutions. Seed rematriation is therefore the process and movement by which Native nations reclaim their cultural seed heritages. Once seeds are returned to the hands and soils of their home communities, Indigenous Nations can reestablish healthy, diverse, and sustainable seed and foodways for generations to come. This article explores the history of the term rematriation within Indigenous sovereignty scholarship as well as its evolving interpretations and applications. Considering how the seed rematriation movement has been shaped by several seed keepers in the Midwest reveals the cultural understandings and significances that underpin this work across many aspects of Indigenous lifeways. The resulting discussion from ethnographic material demonstrates why seed reclamation and seed sovereignty movements in the Midwest uphold Native nationhood through both resurgence and refusal. The Indigenous processes of recognizing and reclaiming seeds work beyond recovering agricultural knowledge to also mend severed kin relationships, rejuvenate cultural knowledge, and reestablish authority over Indigenous food systems. © The Author(s), under exclusive licence to Springer Nature B.V. 2024. Springer Nature or its licensor (e.g. a society or other partner) holds exclusive rights to this article under a publishing agreement with the author(s) or other rightsholder(s); author self-archiving of the accepted manuscript version of this article is solely governed by the terms of such publishing agreement and applicable law.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -692,15 +692,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
+          <t>Evaluation of family agriculture production systems through thresholds for the construction of sustainable proposals, Penipe Canton</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
+          <t>Peasant family farming is one of the main suppliers and is responsible for guaranteeing food sovereignty. A particular interest is given to the functioning of the productive system, which seeks to determine, through the analysis of critical points and thresholds, to define sustainable alternatives, translating the general principles of sustainability into definitions and operational practices. The objective of this study was to valuate family farming production systems through productive thresholds with the purpose of proposing sustainable alternatives for the improvement of the agricultural system in the Penipe canton. The methodology of this study included the establishment and generation of attributes, diagnostic criteria, and critical points to make a comparison with the productive thresholds, applied to nine farms representative of the three productive typologies. In this study, the three production systems of the Penipe canton were evaluated. We proposed alternatives for each of them, such as the implementation of new agroecological management strategies, the generation of organic fertilizers, the production of bio inputs, the strengthening of interdisciplinary approaches through the adoption of technological innovations and research, the increased participation of different owners throughout the production process, and the promotion of associativity, which provides the design of new alternative production systems. In conclusion, specialized family farming poses alternatives for improvement in terms of the provision of quality seeds, technical management, greater management, and government support. Diversified family agriculture will be ontained by government management and execution, training, adoption of innovations, dependence on external resources, crop risk, yields, access to credit. In the productive aspect, deficiencies were found in root development, pending involvement, irrigation water, organic matter, soil cover, and subsistence family agriculture, followed by land tenure and occupation, social connection, government management and execution, training, adoption of innovations, dependence on external resources, crop risk, yields, access to credit, as well as productive aspect deficiencies in root development, affectation of the slope, irrigation water, drainage, organic matter, soil cover, management, and plant development. © The Author(s).</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,15 +728,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
+          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
+          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,15 +764,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
+          <t>The Choctaw Nation’s Growing Hope Program</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The Choctaw Nation of Oklahoma’s Historic Preservation Department (HPD) and the Center for Indigenous Health Equity (CIIHE) are partnering to implement and evaluate food sovereignty interventions to better understand the potential impact of such programs on individual and community health. The HPD’s Growing Hope Program is a food sovereignty initiative that aims to restore traditional Choctaw gardens, which were once a physical, social, and cultural center of Choctaw life. The program combines heirloom seeds and the stories of their origins, gardening education and technical assistance, cooking classes, and a Choctaw youth internship program to support intergenerational knowledge and the restoration of culture and food security. Since its inception the program has provided Choctaw families with ancestral Choctaw cultivar seeds and provided the technical assistance to support the growing of sustainable, healthy, traditional Choctaw foods. © 2023 Society for Public Health Education.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,15 +800,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
+          <t>Global modeling of the socioeconomic, political, and environmental relations of farmer seed systems (FSS): Spatial analysis and insights for sustainable Development</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
+          <t>Accessible, high-quality seed is vital to the agricultural,food, and nutrition sovereignty needed for justice-based sustainable development. Multiregion, interdisciplinary research on farmers' seed systems (FSS) can complement case-based andthematicapproaches.This study'sgoals are to(1) provide a synthetic overview ofcurrentmajor FSS concepts; (2) design andevaluate a novel social- and political-ecologicalmodel of FSS using globally representative data from mountain agricultural areas of Africa, Asia, and Latin America; (3) model and evaluate FSS relations to socioeconomic, political, and environmental factors including main food crops (rice, wheat, maize, potato, and common bean); (4) generate new spatial, geographic, and demographic estimates; and (5) strengthen FSS for justice-based sustainable development of agriculture, land use, and food systems.The conceptual framework of FSS-related factors guided the global modeling of data from 11 countries in Africa, Asia, and Latin America. A multiple regression model explained FSS utilization (R2 ¼ 0.53, P &lt; 0.0001), specifying the significant inverse relations to mean farm area (strong), per-capita Gross Domestic Product at the district level (strong), and urban distance (moderate). FSS showed strong positive relations to aridity and topographic ruggedness. FSS were positively related to elevation in a 5-country Andean subsample. Results estimated FSS utilization by 136 million farmers within the 11 countries. Novel insights to strengthen FSS policies and programs are the importance of FSS to extremely small farm-area subgroups and other distinct FSS stakeholders, global-region geopolitical distinctness of FSS-farm area relations, multidistrict FSS concentrations that enable extralocal FSS spatial connectivity, FSS capacities in climate-change hot spots, and high FSS encompassing periurban areas. Policy-relevant results on global geographic and demographic extensiveness of FSS and key spatial, socioeconomic, political, and environment relations demonstrate that globally FSS are key to supporting agrobiodiversity, agroecology, nutrition, and the sustainability of food systems. These advise strengthening FSS through pro-poor and linked urban-rural policies at regional scales in addition to expanding local initiatives. © 2023 University of California Press. All rights reserved.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,15 +836,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Flux, unrelenting–the struggle for local seed sovereignty in Nicaragua</t>
+          <t>Assessment of the potential impact of the African Continental Free Trade Area on the right to food security of small-scale farmers and vulnerable groups; [Évaluation de l’impact potentiel de la zone de libre-échange continentale africaine sur le droit à la sécurité alimentaire des petits exploitants agricoles et des groupes vulnérables]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Most farmers are not activists. They make, however, their own sense of the world and act–sometimes quite stubbornly–according to that sense given, grasping what they perceive as opportunities, and protecting what they feel as essential for their livelihood. Political projects for Nicaraguan society, international policy-making, corporate strategies and imperial ambitions engage with and affect the varieties grown locally. The article analyses the creativity and political potential, as well as the contradictions and inconsistencies of the quotidian practice of seed saving under extreme constraint in light of the major struggles about Nicaraguan seed legislation. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The African Continental Free Trade Area (AfCFTA) presents opportunities but also risks for food security of vulnerable groups and small-scale farmers. Increased intra-African trade could improve efficiency, lower costs, and boost food availability. However, more imports may displace local production by smallholders who struggle to compete, worsening hunger and eroding food sovereignty. Policies prioritising exports or imports over domestic farming can reduce control of food systems and increase reliance on foreign sources for food. The right to food security is recognised under international and African human rights instruments. The AU’s Malabo Declaration aims to spur agricultural development and food security access across Africa. This article analyses AfCFTA’s potential impact on smallholders’ and vulnerable groups’ right to food security. It identifies possible benefits and risks of greater agricultural trade and examines how policies could undermine food sovereignty and security. The article outlines policy recommendations to mitigate potential adverse effects of AfCFTA on food security. It argues that targeted policies and investments are needed to safeguard vulnerable groups. The doctrinal analysis reviews applicable rules and literature to elucidate AfCFTA’s nuanced impacts on food security and inform policy making. Recommended collaborative efforts involve subsidies, microloans, extension services, infrastructure, and public-private finance partnerships to support smallholders. Additional policies include strengthening land rights and gender equality, upholding seed protections, leveraging AfCFTA safeguards, pursuing deeper integration, and combining trade reforms with transport upgrades. Holistic, tailored approaches suiting countries’ diverse contexts are required, not one-size-fits-all solutions. Strategic policies and investments empowering farmers, building resilience, and enabling inclusive agricultural development can help vulnerable populations seize AfCFTA opportunities. © 2023, Pretoria University Law Press. All rights reserved.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>History and challenges of Brazilian social movements for the achievement of the right to adequate food</t>
+          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The historical struggles that Brazil faced to overcome malnutrition coincided with the empowerment of civil society and social movements which played a crucial role in the affirmation of health and food as social rights. After two decades under military dictatorship, Brazil went through a redemocratization process in the 1980s when activism emerged to demand spaces to participate in policy-making regarding the social agenda, including food and nutrition security (FNS). From 1988 onward institutional structures were established: the National Council of FNS (CONSEA) convenes government and civil society sectors to develop and monitor the implementation of policies, systems and actions. Social participation has been at the heart of structural changes achieved since then. Nevertheless, the country faces multiple challenges regarding FNS such as the double burden of disease, increasing use of pesticides and genetically modified seeds, weak regulation of ultra-processed products, and marketing practices that affect the environment, population health, and food sovereignty. This article aims at examining the development of the participatory political system and the role played by Brazilian social movements in the country’s policies on FNS, in addition to outlining challenges faced by those policies. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,15 +908,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
+          <t>The transformative potential of Seed Commons: Applying the social-ecological transformation framework to agri-food systems</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
+          <t>In this paper, we argue that small initiatives can contribute to larger transformations if they challenge and unmake incumbent unsustainable paradigms, and we demonstrate how the application of the social-ecological transformation framework helps to operationalize the analysis of paradigm shifts across different levels of transformation. Empirically, we assess the contribution of Seed Commons initiatives to agri-food systems transformations, taking the case of the organic breeding association Kultursaat e.V. At the macro level, the analysis reveals that the paradigms of ‘materialistic culture and growth’, ‘control and autonomy of humans over nature’ and ‘expert knowledge and specialization’ are deeply embedded in the dominant agri-food system. Kultursaat challenges them by promoting alternative narratives such as agroecology, food sovereignty, farmers' rights and resilience. At the micro and meso level, we apply a set of evaluation principles that reveal the transformative character and partial transformative impact of Seed Commons. Applying the framework to agri-food systems can bring an enhanced theoretical understanding of dynamics of change into the agri-food transformation discourse, link small-scale initiatives to wider processes of transformation, and provide a systematic research approach to enhance comparability across case studies. The framework is well suited to bring together even evolving transformation literatures. © 2022 The Authors</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,15 +944,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
+          <t>The United Nations Declaration on the rights of peasants and other people working in rural areas: possibilities for the formation of a rural Latin-American historic bloc</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
+          <t>Worsening conditions due to the COVID-19 crisis hit rural and agricultural communities in Latin America hard. Paradoxically, this happened when the specific rights of those communities were recognised in a newly adopted international instrument, the UN Declaration on the Rights of Peasants or UNDROP. UNDROP departs from most universal human rights instruments negotiated in the UN by speaking for a group defined by social class and not gender, age, ethnicity, or other categories. In this sense, UNDROP appears to be inspired by a return to class, like instruments negotiated within different international organisations, more precisely the International Labor Organization. The reconsideration of class as a social category is not an endpoint for transnational peasant and agricultural workers’ legal activism; it may create broader spaces for legal mobilisation. Such legal mobilisation may come in the form of class solidarity on issues such as gender in rural spaces, access to seeds and land, or the broader concept of food sovereignty. Nevertheless, historic bloc formation is contentious, and these same issues may be contingent, as exemplified in the Lhaka Honhat Association Case. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,15 +980,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
+          <t>Colonization by kale: marginalization, sovereignty, and experiential learning in critical food systems education</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
+          <t>In increasingly cross-cultural global settings, the performance and promotion of healthy food, “good” food (comida saludable) have become conflated with a narrowing range of iconic vegetable and “superfood” trends that often reflect the health and dietary preferences of an affluent and/or aspirational consumer culture. These colonizing cultivars, and the haute cuisine trends they embody, often displace indigenous food knowledge, techniques, and products already compromised by the penetration of processed foods. Through experiential pedagogical examples from Guatemala and Vermont, this paper explores the ways in which participatory, indigenous food and seed sovereignty curricula can help decolonize these newest kinds of hegemonic impositions and reaffirm traditional food systems. © 2022 Association for the Study of Food and Society (ASFS).</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,15 +1016,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
+          <t>Ethnolinguistic and genetic diversity of fonio (Digitaria exilis) in Senegal</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
+          <t>Societal Impact Statement: Fonio (Digitaria exilis—Kippist—Stapf) is a neglected cereal crop that plays a crucial role in the food and nutritional security of sub-Saharan populations. Currently threatened with extinction in many countries, fonio, like other minor species, could help give insights into the history of African agriculture and provide clues to past social interactions. Highlighting and preserving genetic diversity that can be used to develop improved varieties improves food security. By recognizing the role of indigenous people and local communities (IPLCs) in agrobiodiversity creation and management, this study provides support for strengthening the rights of rural communities and promoting their food and seed sovereignty as outlined in the United Nations UNDROP Declaration. Summary: Fonio (Digitaria exilis) is a neglected cereal crop that plays a crucial role in the food and nutritional security of sub-Saharan populations. It is an excellent candidate to diversify agricultural and food systems beyond Africa because of its adaptability and hardiness. However, fonio is threatened with extinction and the factors that organize its genetic diversity remain unknown, despite the fact that this knowledge is necessary to define conservation strategies and uses to achieve sustainable agriculture. Here, we combined social anthropology and population genetics analysis of 158 fonio landraces, thereby generating insight into the genetic diversity, population structure and evolutionary history of fonio cultivation in Senegal. We noted a spatial structure of genetic diversity at two embedded levels, with the first corresponding to the genetic differentiation between ethnic groups and the second to the demographic history of the Mande and Atlantic Congo linguistic families. Selection and seed exchange practices have contributed to shaping fonio genetic diversity at the ethnic level, while the migration of Fulani people over the last 500 years has fragmented the Mandinka kingdom, hence leaving a fonio diversity imprint. Our study highlighted that social factors are pivotal in structuring diversity and should be taken into greater consideration in research and conservation projects to dovetail local and regional scales. It also showed that neglected species such as fonio—which are seldom used in breeding and dissemination programmes—are key markers of the history of African agriculture. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,15 +1052,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sovereignty, Risk and Biotechnology: Zambia's 2002 GM Controversy in Retrospect</t>
+          <t>Toward Food Sovereignty: Transformative Agroecology and Participatory Action Research With Coffee Smallholder Cooperatives in Mexico and Nicaragua</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The southern African food crisis of 2002 led to one of the most significant controversies over the use of genetically modified (GM) crops in the developing world to date. Zambia's staunch opposition to GM food aid during the crisis is still frequently used as a reference point in debates over GM seed technology in agricultural development, and the morality of advanced biotechnology. This article re-examines the controversy and its contemporary relevance using oral history interviews with key scientists, policy makers and development practitioners engaged in debates and decision-making processes in Zambia in 2002, alongside a review of discourses in the Zambian press. The author argues that, rather than different perceptions of health and environmental risks derived from GM crops, it was questions of sovereign regulatory control of technology in a context of diminished state capacity - and the decline in the Zambian state's capacity for agricultural science research in particular - that played a central role in shaping anti-GM attitudes. In addition, trust in the arguments of GM advocates was diminished by communication efforts which treated Zambian scientists and policy elites as a lay rather than an expert audience. © 2015 International Institute of Social Studies.</t>
+          <t>The challenges that coffee smallholder livelihoods face suggest the need to move beyond incremental changes in production. Transformative agroecology offers a potential approach to guide systemic change to achieve food sovereignty among coffee smallholders and cooperatives. This work aims to understand the extent to which diversification practices among coffee smallholders can contribute to a transformative agroecology, and to what extent, participatory action research (PAR) projects may support related transformative processes. The PAR projects described in this paper took place over 3 years with participants associated with two smallholder cooperatives in Mexico, and Nicaragua. After establishing long-term partnerships among cooperatives and universities, we used a PAR approach to guide a mixed methods study that included 338 household surveys, 96 interviews, 44 focus group discussions, and participant observation during farmer-to-farmers exchanges. We found that, although coffee-producing households in both study sites report several diversification activities, more than 50% still face some period of food scarcity each year. In our reflections with farmers and staff from the participating cooperatives, that are also included as co-authors in this study, we conclude that coffee smallholders and cooperatives in both locations are in the early stages of developing a transformative agroecology, as a path toward food sovereignty. Several leverage points to achieve this include land access, native seed conservation, cultural attachment to certain diversification practices, and traditional diets. Some of the more significant challenges to advancing a more transformative agroecology are the prioritization of coffee as a crop (i.e., coffee specialization), and dependency on coffee income. Our PAR project also aimed to contribute to achieving change in the prevailing system through 1) capacity building with community facilitators/promoters, 2) co-creation of questions and knowledge relevant to the strategic planning by coffee cooperatives, 3) sharing farmer-to-farmer pedagogies across territories, and 4) the co-production of popular education material. We conclude that diversification remains an important agroecological strategy for smallholder commodity producers, as a way of achieving food sovereignty. Most of all, we find that achieving diversification is not a linear process, as there are many trade-offs, feedback loops, obstacles and opportunities that should be considered through long-term and collective approaches. Copyright © 2022 Guzmán Luna, Bacon, Méndez, Flores Gómez, Anderzén, Mier y Terán Giménez Cacho, Hernández Jonapá, Rivas, Duarte Canales and Benavides González.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,15 +1088,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
+          <t>A Food Sovereignty Approach to Localization in International Solidarity</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
+          <t>Renewed calls for localization and the “decolonization of aid” are raising questions about whose knowledge and control are privileged. This article argues that in order to support local decision-making on food systems and agricultural aid, international solidarity work should look towards food sovereignty and agroecology approaches. Food sovereignty and agroecology, informed by feminist approaches, can provide important lessons for localization as they prioritize local knowledge and decision-making, and are based on social justice principles. They also provide alternatives to the problematic concept of “development”, particularly the agro-industrial development model which contributes to environmental and health crises, corporate concentration, colonialism and inequality. An example of the trajectory of the NGO SeedChange is provided to help illustrate how food sovereignty can: (1) provide an alternative to problematic development concepts, and (2) encourage localization and greater priority to global South perspectives. While acknowledging that there exist contradictions and challenges to shared decision-making, learning from partners in the global South working for seed and food sovereignty has been crucial to shaping the organization’s programs and policy advocacy. © 2022 by the authors.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Reuniting the Three Sisters: collaborative science with Native growers to improve soil and community health</t>
+          <t>Cultivating Agroecological Networks during the Pandemic in Argentina: A Sociomaterial Analysis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Before Euro-American settlement, many Native American nations intercropped maize (Zea mays), beans (Phaseolus vulgaris), and squash (Cucurbita pepo) in what is colloquially called the “Three Sisters.” Here we review the historic importance and consequences of rejuvenation of Three Sisters intercropping (3SI), outline a framework to engage Native growers in community science with positive feedbacks to university research, and present preliminary findings from ethnography and a randomized, replicated 3SI experiment. We developed mutually beneficial collaborative research agendas with four Midwestern US Native American nations. Ethnographic data highlighted a culturally based respect for 3SI as living beings, the importance it holds for all cultural facets of these Native nations, and the critical impact the practice has on environmental sustainability. One concern expressed by Native growers during ethnographic research was improving soil health—part of the rationale for establishing the 3SI agronomic experiment. To address this, we collaboratively designed a 3SI experiment. After 1 year, 3SI increased short-term soil respiration by 24%, decreased salt-extractable nitrate by 54%, had no effect on soil microbial biomass (but increased its carbon-to-nitrogen ratio by 32%) compared to the average of monoculture crops. The overarching purpose of this collaborative project is to develop a deeper understanding of 3SI, its cultural importance to Native communities, and how reinvigorating the practice—and intercropping in general—can make agroecosystems more sustainable for people and the environment. © 2022, The Author(s).</t>
+          <t>The COVID-19 pandemic has motivated a turn towards more agroecological food production and food sovereignty. This article aims to analyze how the agroecological actor network has emerged in and around the capital of Buenos Aires and the province of Santa Fe, in Argentina, during the pandemic. The research questions are: How has the agroecological actor network emerged during the pandemic in Argentina? In what ways are agroecological networks enacted through coupling and decoupling practices? The study is based on interviews with practitioners, and observations of online events. In our results, we show how the production of compost, exchange of seeds and experiences, governmental programs, and food fairs are coupled and assembled in the agroecological network. The agroecological network is decoupling from the conventional agroindustrial model with pesticides and chemical input, supermarkets, and the global food system. The conclusion is that the pandemic has worked as a crisis where the agroecological network has been expanded. © 2022 by the authors.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,15 +1160,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Food anarchy and the State monopoly on hunger</t>
+          <t>South and/or north: an indigenous seed movement in South Korea and the multiple bases of food sovereignty</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>This article applies an anarchist lens to the food sovereignty movement. It analyzes food regimes as capitalist agriculture regimes which rely on the State’s monopoly on hunger, wherein the State relies on the dispossession of people from their land and food systems, the protection of property, and the primacy of capital. The interdependence of this State-capital-property trinity is violently enforced, and manufactures compliance through counterinsurgent strategies of social war. The State monopoly on hunger justifies a new offshoot of the larger food sovereignty movement, a prefigurative praxis which dismantles all food regimes to build new counter-worlds: food anarchy. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>South Korean cultivators share features with counterparts in both the global south and north. This combination of traits has produced a diversity of sources that underpin a food sovereignty movement. A case study of t’ojong, or native, seed activism illustrates how local systems of meaning and particular constellations of interests make food sovereignty appealing to a broad coalition of farmers, consumers, part-time cultivators, agricultural scientists, and activists for farmers and for women. The country’s experience demonstrates that responses to market encroachment on food production provide only part of the force driving food sovereignty movements. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1196,15 +1196,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
+          <t>Policies and practices of central and sub-national governments for seed commons formation in Japan: will the seeds of the varieties collected and developed be shared?</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
+          <t>Proponents of agroecology and food sovereignty are trying to form seed commons as a framework against the formal seed systems established by governments. However, we argue that the formation of seed commons should not be considered as a dichotomy that distinguishes between the government and stakeholders, including farmers, but rather as a dichotomy that divides the scope of activities into those regulated by law and those that can be determined by farmers at their own discretion. Japan, like many other countries, is a signatory to the International Treaty on Plant Genetic Resources for Food and Agriculture and the International Union for the Protection of New Varieties of Plants, both of which contain important elements for the conservation of agricultural biodiversity and agroecology at the national and local level. Based on the proposed dichotomy, this study aims to explore the possibility of creating seed commons for seed sharing in Japan. We clarify the policies and actual conditions surrounding the access and use of seeds and explore the possibility of creating seed commons. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1232,15 +1232,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
+          <t>EARTH JURISPRUDENCE IN AFRICA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
+          <t>If we are to find our way into the future, Earth-centred approaches to governance are the only way forward for Africa and for the world. In the midst of the multiple ecological and social crises of our time, a strong, pan-African Earth Jurisprudence Collective is advocating for decolonised, African, Earth-centred pathways into a flourishing, life-sustaining future for all species. The African Earth Jurisprudence Collective is accompanying traditional and indigenous communities in East, West and Southern Africa as they revive their ancestral knowledge and practices, restore sacred natural sites and associated rituals, re-establish indigenous seed diversity and food sovereignty, and strengthen their customary governance systems, which are aligned with the laws of the Earth. These civil-society-led initiatives are founded on Africa's rich indigenous legal traditions and cultural heritage and inspired by Earth Jurisprudence. © 2022 Universitat Rovira i Virgili. All right reserved.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1268,31 +1268,3163 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Let’s Reclaim Our Food Sovereignty and Reject the Industrial Food System!</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>African food systems are a rich and varied tapestry of production systems, crops, seed, territorial markets, cultures, biodiversity and ecologies. As the UN Food Systems Summit worked to retrench the many pathologies that have systematically eroded African food systems, African civil society organizations mobilized to push back. In the African regional people’s countermobilization, participatory dialogues opened space for continent-wide articulations of a future built on peoples’ choices and control of natural resources, territorially-embedded solutions, the human rights of all, family farming, and peasant agroecology. © 2021, Society for International Development.</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Seeds of change? Social practices of urban community seed sharing initiatives for just transitions to sustainability</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The sharing of seeds is a practice with ancient roots. However, the structures of global agri-food trade in late modernity have drastically reconfigured practices of exchange and reshaped matters of legal ownership, resulting in constrained access to seeds for many. Scholars and activists are increasingly concerned about the negative impacts these changes are having from a justice and sustainability perspective. To date, seed sharing research has predominantly occurred as one element of wider seed sovereignty debates, and particularly in relation to farmers in low- and middle-income countries. Seed sharing beyond these contexts has received limited attention. To broaden understanding of seed sharing and its diverse practices, this paper provides a foundational landscape level analysis of urban community seed sharing initiatives from 100 urban locations globally. It outlines the rules, tools, skills and understandings that shape seed sharing practices and teases out commonalities with, and differences between, these urban activities and those that currently dominate the landscape of seed sharing research. In conclusion, further research is proposed to build on these foundations and establish the contributions, actual and potential, that urban seed sharing provides for just transitions to more sustainable urban food systems. © 2022 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>“Without Food there is No Resistance”: The impact of the Zapatista conflict on agrobiodiversity and seed sovereignty in Chiapas, Mexico</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Violent conflicts are frequently associated with detrimental or neutral effects on economic, social, and environmental development; by extension, one might expect similar effects on agrobiodiversity. However, as this study suggests, the impacts of conflicts are not necessarily all negative or neutral. Indeed, conflicts may also create favorable political conditions for the implementation of community-driven agrobiodiversity management. Drawing on ethnographic research in the indigenous central region of Chiapas, Mexico, where the insurgent Zapatista movement (EZLN) has a strong influence, we examine the impact of the agrarian conflict between this indigenous movement and the Mexican government on the development of agrobiodiversity conservation initiatives. Two research questions guide this paper: (1) What has been the impact of the conflict on communities’ subsistence agriculture and seed sovereignty? and (2) To what extent has the local seed sovereignty movement—an outgrowth of the Zapatista conflict—influenced agrobiodiversity conservation? Our findings suggest that the conflict has led to the implementation of grassroots agroecology and food and seed sovereignty projects that could ultimately strengthen agrobiodiversity in the communities under the influence of the Zapatista movement. We suggest that these projects highlight two elements essential for long-term agrobiodiversity conservation: first, the strategic relationship between agrobiodiversity conservation and these communities’ food security and seed sovereignty, particularly in the context of conflict; and second, the central role that peasant communities play in the preservation, reproduction, and evolution of agrobiodiversity. We conclude that the overall long-term impact of the Zapatista conflict on local agrobiodiversity has in fact been positive. © 2020 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>POLITICAL ETHNOGRAPHY OF SEED SAVING PRACTICES AND AGROECOLOGICAL FARMING: EXPLORING THE AGENCY OF WOMEN FARMERS</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>This article aims to capture the political ethnography of seed-saving practices in indigenous agriculture based on the field research carried out between 2017 and 2019 in some regions of India. The study depicts the indispensable value of native seed for marginal women farmers engaged in subsistence and agroecological farming. The role of saving and curating seed provides women a voice, the much-needed role, in otherwise highly patriarchal rural societal settings. Ownership and control of seeds give them agency and autonomy in farming. However, a new agricultural regime, marked by trade liberalisation and intellectual property infringements, restricted seed saving by farmers. These transformations have not only eroded women’s agency but have unprecedentedly altered the matrix of agriculture. Yet, marginal farmers are resilient in bypassing the adversities created by the politics and political economy of the contemporary global-agribusiness regime. This paper captures some of the initiatives that enable the reclamation of seed sovereignty and enhance food security, leading to the empowerment of farmers in the studied region. © 2022 National Institute of Rural Development. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Norm conflicts as governance challenges for Seed Commons: Comparing cases from Germany and the Philippines</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A Seed Commons approach can help to highlight the common struggle of diverse seed initiatives in the Global North and South in light of the dominant pathway of enclosure and commodification of seeds that threatens food sovereignty and cultivated plant-genetic diversity. In this paper, the Seed Commons framework is applied to show how the conflicting norms and rules of the international regime complex surrounding seeds shape the scope of action for Seed Commons in Germany and the Philippines. The analysis shows that the patent and variety protection regimes have strongly influenced the design of national seed marketing and threaten to outlaw practices of Seed Commons. Despite limited practical impact for Seed Commons initiatives (so far), the norms of the Nagoya Protocol and the Seed Treaty have contributed to exceptions in national seed marketing law that provide essential scope of action for Seed Commons initiatives in Europe and the Philippines. © 2021 The Author</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Caliata: An Indigenous Community in Ecuador Offers Lessons on Food Sovereignty and Sustainable Diets</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Background: To achieve a healthy sustainable food system globally, it is imperative to understand how local food systems can provide healthy and sustainable conditions. Objective: To explore, through the indigenous community of Caliata in the Ecuadorian highlands, the factors that support or hinder sustainable Andean food systems. Methods: We designed a participatory mixed-methods study in Caliata (Chimborazo, Ecuador) and an inclusive and transdisciplinary research process with constant member checking. The study combined culturally validated qualitative methods (n = 49), agroecology-based site analysis, and household surveys (n = 57), including a modified 48-h recall. We used the NOVA food classification system to categorize the diet according to levels of processing and analyzed categorical and numeric data to understand the interplay of parcel size, agrodiversity, and diet diversity. Results: First, the agroecological space is defined by the stewardship of Pachamama (Mother Nature), a central role in Andean cosmovision, leading to trophic interactions and cycles characterized by a diversity of heterarchical social organizations and agroecologically useful species. Second, consistency was found in dietary patterns; all respondents consume their produce, fruits being the most popular snack (in a 24-h period, 70% reported an average of 2.2 servings), and two-thirds of households' consumption represent unprocessed or minimally processed foods. Third, gendered agriculture and population aging represent demographic challenges, while chronic health problems remain relatively infrequent compared with the general population. Fourth, food sovereignty is an ecocentric concept based on production, exchanges of seeds and produce, consumption of produce, and knowledge of how agroecological space is treated. This system represents a nutrient loop tied to a system of knowledge about how to care for soil, land, and the ecological community. Conclusions: Caliata provides important perspectives on linkages between diet, biodiversity, use of agroecological space, and rural-urban dynamics. This small indigenous community offers lessons for achieving both healthy ecosystems and food security. © 2021 The Author(s) 2021. Published by Oxford University Press on behalf of the American Society for Nutrition.</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Can public universities play a role in fostering seed sovereignty?</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Across Canada and the United States, public universities were founded with a mission to contribute to broad societal well-being. Yet, the capacity of public research institutions to develop and disseminate flexible and accessible tools for resilient agriculture has been challenged in recent decades. The role of universities in advancing extractive, rather than regenerative, economies has been amplified by the privatization of public agricultural research and extension of knowledge to farmers, particularly in plant breeding and plant genetics. In this article, we examine the history of public research for seed systems in North America through a “seed regimes” framework, arguing that a narrow focus on commercialization of public research has exacerbated inequalities inherent in the founding structure of public agricultural research, including the displacement of Indigenous land and seed relations. We then discuss how community organizations are challenging the enclosure of seed through seed sovereignty organizing and freelance plant breeding, in some cases through the development of community–university partnerships based on the principles of the cocreation of knowledge. We conclude by offering a reimagined public seed research agenda that focuses on strengthening links between public research and grassroots seed movements, as an opportunity to build more resilient seed and food systems. Copyright: © 2021 The Author(s).</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>The Right to Seeds and Legal Mobilization for the Protection of Peasant Seed Systems in Mali</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>This article discusses the right to seeds and legal mobilization for the protection of peasant seed systems in Mali. It centres on the ongoing 'Seed, Norms and Peasants' process ('Semences, Normes et Paysans', SNP), the goal of which is to achieve the recognition of peasant seed systems in the law. Through the lens of human rights practice, the article explores how peasant organizations and allied NGOs have: A) converged around a shared political agenda despite initial disagreement on the role of certified seeds; b) framed the right to seeds as a collective right, grounded in customary regimes for the governance of land and natural resources; and c) engaged in dialogue with the state to push for legal reform. It further discusses processes of legal transfers and seed aid that have ushered the development of a commercial seed sector in Mali and locates peasant seed systems within the political economy of seeds in the country. © 2021 The Author(s). Published by Oxford University Press. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>COVID-19 impacts on agriculture and food systems in Nepal: Implications for SDGs</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>The objective of this study was to understand the impacts of COVID-19 crisis in agriculture and food systems in Nepal and assess the effectiveness of measures to deal with this crisis. The study draws policy implications, especially for farming systems resilience and the achievement of SDGs 1 and 2. The findings are based on (i) three panel discussions over six months with policy makers and experts working at grassroots to understand and manage the crisis, (ii) key informants' interviews, and (iii) an extensive literature review. Results revealed that the lockdown and transport restrictions have had severe consequences, raising questions on the achievement of SDGs 1 and 2, especially in the already vulnerable regions dependent on food-aid. This crisis has also exposed the strengths and limitations of both subsistence and commercial farming systems in terms of resiliency, offering important lessons for policy makers. Traditional subsistence farming appears to be somewhat resilient, with a potential to contribute to key pillars of food security, especially access and stability, though with limited contributions to food availability because of low productivity. On the other hand, commercial farming - limited to the periphery of market centres, cities, and emerging towns and in the accessible areas - was more impacted due to the lack of resilient supply networks to reach even the local market. Lower resiliency of commercial farming was also evident because of its growing dependence on inputs (mainly seeds and fertilizer) on distant markets located in foreign countries. The observation of crisis over eight months unleashed by the pandemic clearly revealed that wage labourers, indigenous people, and women from marginalized groups and regions already vulnerable in food security and malnutrition suffered more due to COVID-19 as they lost both external support and the coping mechanisms. The findings have implications for policies to improve both subsistence and commercial farming systems – in particular the former by improving the productivity through quality inputs and by diversifying, promoting and protecting the indigenous food system, while the latter through sustainable intensification by building reliant supply network linking farming with markets and guarantying the supply of inputs. © 2020</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Losing practices, relationships and agency: ecological deskilling as a consequence of the uptake of modern seed varieties among South African Smallholders</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Technological changes embedded in the processes of agrarian modernization have profoundly reshaped agricultural environments, practices, discourses and institutions worldwide. This article explores how social–ecological relations shift in agricultural practices following the introduction of modern seed varieties, including hybrid and genetically modified (GM) seeds and their co-technologies. Drawing on interviews and ethnographic work in smallholder maize farms in South Africa, we introduce the concept of ecological deskilling in agriculture and describe three dimensions related to it: loss of ecologically based practices, loss of relational knowledge, and loss of socio-ecological agency. Our findings suggest that the introduction of modern seed varieties may contribute to the process of ecological deskilling due to the disruption of the co-evolution of knowledge between smallholder farmers and agroecological environments. We argue that this form of deskilling can undermine food sovereignty and farmers’ agency. It can also narrow future possibilities and pathways for sustainable agricultural development. © 2021 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Farmer-plant-breeders and the law on Java, Indonesia</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>In the last two decades, some Javanese rice farmers have learned to be plant breeders with the help of Farmer Field Schools for Participatory Plant Breeding. However, they have experienced problems with seed and intellectual property laws primarily focused on the strengthening of the seed industry and compliance with development plans. A number of farmers have been prosecuted for experimenting with seeds, prompting a partly successful challenge to relevant provisions in Indonesia’s Constitutional Court. Subsequent legislative changes have restored some farmers’ rights, but also brought new reporting requirements and limitations. Using James Scott’s concept of “transformative state simplifications,” this article shows that legal challenges to regulations are just one strategy of self-help. The political reform process and possibility for constitutional challenges have opened up space for debates about how farmers can benefit from laws that seek to regulate their cultivars. The United Nations Declaration on the Rights of Peasants and other developments are likely to intensify discussions about what precisely various laws mean by their encouragement of “small farmer varieties,” “food sovereignty,” and a “sustainable agricultural cultivation system.”. © 2020 BCAS, Inc.</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Genetically modified crops and seed/food sovereignty in Argentina: scales and states in the contemporary food regime</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>With more than half of its arable land planted with genetically modified soybeans, Argentina presents a strategic research site to investigate contestations of intellectual property rights on seeds and the enclosure of seeds as common resources. In this contribution, we tackle Argentina as a case study to address three issues. First, we discuss the sweeping expansion of genetically modified crops to illustrate its associated role in (a) the conflicts, negotiations and accommodations of seed control and (b) the obstacles to food/seed sovereignty. Second, we inspect the spatial and class dynamics of these processes with the goal of making a contribution to the literature on food regimes. By looking at the regional dynamics within a nation, we seek to question the ‘methodological nationalism’ of the food regime perspective that, by and large, understands countries as units. Third, and linking the two previous points, we inspect the role of the state in struggles and negotiations over seed and food sovereignty at both the national and subnational scales. We argue that a multi-scalar approach on food/seed sovereignty struggles can provide further visibility to subordinated actors. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Exploring the ‘grey areas’ of state-society interaction in food sovereignty construction: the battle for Venezuela’s seed law</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>In late December 2015, amidst plummeting oil prices, highly politicized food shortages, and an all-around tense political climate in Venezuela, an unexpected event took place in the country’s National Assembly just days before a major shift in its political leadership. A new seed law was passed, with provisions including bans on genetically modified seeds and the patenting of life forms, recognition of both formal and informal seed systems, and protections for the seeds of the country’s peasant, Indigenous, and Afro-descendant communities. The processes behind the Law’s passage were long, messy, dynamic and contentious, with unanticipated twists and turns, betrayals and alliances. This article shares an ‘intimate perspective’ into these processes, as described by those directly involved in them, and as seen through the combined analytical lenses of a historical, relational and interactive approach to food sovereignty construction. This includes an exploration of the shifting of roles across state-society lines; the interaction of threats and opportunities as catalysts for collective action; and incremental shifts in power as social movements engage strategically in different types of spaces, including inside, outside, through and between formal structures of the state. Such an approach complicates simplified narratives around state co-optation of movements on the one hand or idealized depictions of state-society synergy on the other, revealing the many shades of grey involved. The aim is to contribute new insights into the complexities of state-society relations in the construction of food sovereignty, and into bottom-up policy-making processes more generally. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Participatory plant breeding and social change in the Midwestern United States: perspectives from the Seed to Kitchen Collaborative</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>There is a strong need to connect agricultural research to social movements and community-based food system reform efforts. Participatory research methods are a powerful tool, increasingly used to give voice to communities overlooked by academia or marginalized in the broader food system. Plant breeding, as a field of research and practice, is uniquely well-suited to participatory project designs, since the basic process of observing and selecting plants for desirable traits is accessible to participants without formal plant breeding training. The challenge for plant breeders engaged in participatory research is to consider not only how their work incorporates farmer input in developing new varieties, but also how it interacts with broader questions of food sovereignty, food justice, diversity and democratization in the food system. This article examines these issues in the context of the Seed to Kitchen Collaborative, a participatory variety evaluation and breeding project at the University of Wisconsin-Madison. © 2019, Springer Nature B.V.</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Flux, unrelenting–the struggle for local seed sovereignty in Nicaragua</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Most farmers are not activists. They make, however, their own sense of the world and act–sometimes quite stubbornly–according to that sense given, grasping what they perceive as opportunities, and protecting what they feel as essential for their livelihood. Political projects for Nicaraguan society, international policy-making, corporate strategies and imperial ambitions engage with and affect the varieties grown locally. The article analyses the creativity and political potential, as well as the contradictions and inconsistencies of the quotidian practice of seed saving under extreme constraint in light of the major struggles about Nicaraguan seed legislation. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Building Healthy Community Relationships Through Food Security and Food Sovereignty</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Background: Food insecurity disproportionately affects Indigenous Peoples and is linked to poor health outcomes. Indigenous Peoples' food systems once sustained their thriving societies; however, colonial policies of displacement and imposed assimilation severed connections to Indigenous food systems and lands, disrupting identity, culture, and well-being. Objective: In this article we share a grass-roots designed program that addresses food security and heeds Haudenosaunee teachings. The Story of Creation, the Great Law, and Ohénton Karihwatéhkwen (the words that come before all else) were the basis of the framework. The program acknowledges and uses community strengths and skills to enhance social connections and links with land and creation. Methods: The program brought together interested and knowledgeable community members and stakeholders to discuss and better understand food security in the community. This group formed as an advisory group called Ieiénthos Akotióhkwa - 'Planting Group' who shaped the food security activities. Results: The program delivered workshops to build skills and share knowledge about food production and preparation. It targeted diverse participant interests and needs within an environment meant to nurture social connections. The program planted food-bearing trees and plants and created a seed library to create edible landscapes. We invited a broad scope of community knowledge- and skill-holders to share their talents with the community, to reinforce positive connections with each other, and to carry on cultural practices. Conclusions: Challenges included program sustainability linked to short-term funding and personnel turnover. Strengths involved using a culturally based framework that enhanced program coherence, and facilitated collaboration with local initiatives focused on well-being, practicing culture, and respecting the environment. Haudenosaunee teachings hold values and principles for a society that provides food for all. These teachings are a framework for a culturally rich program to support food security skills and resources, but also Indigenous cultural identity and practices. © 2019 American Society for Nutrition.</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Reimagining the relationship between food sovereignty and intellectual property for plants: Lessons from Ecuador and Nepal</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>The concept of food sovereignty is regularly conceived as one side of a binary. Thus, scholars frequently juxtapose food sovereignty—as embodied in small-scale, customary, or peasant agriculture—against large-scale, industrial, and global modes of food production. The logic of this dichotomy suggests that the realization of food sovereignty is incompatible with the recognition of intellectual property for plants and seeds. In contrast, we argue that food sovereignty and intellectual property are not necessarily mutually exclusive concepts. Instead, food sovereignty activists and lawmakers alike are reimagining intellectual property to move beyond a focus on exclusive ownership, thus deploying it in novel ways. Our argument draws on extensive fieldwork, based on which we relate the experiences of two case study countries, namely Ecuador and Nepal. We describe how these countries recently embedded rights related to food sovereignty in reformed constitutional frameworks. We also evaluate how these novel constitutional food sovereignty rights shaped the making of other national laws in Ecuador and Nepal, including frameworks whose purpose is to protect plant varieties as intellectual property. Throughout the article, we demonstrate that countries can both promote food sovereignty and protect plant varieties as intellectual property. One way that governments can achieve this goal is to ensure that all relevant laws and policies—including those which relate to intellectual property for plant varieties, seed certification, and commercialization, and access and use of native genetic resources—are tailored to the realities of local food and seed systems. © 2019 The Authors. The Journal of World Intellectual Property © 2019 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Indigenous knowledge of banjarese tribe farmers in paddy cultivation at tidal swamplands in South Kalimantan, Indonesia</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Traditionally, tidal swampland has been utilized by the Banjarese tribe for farming. They have a unique indigenous knowledge in the paddy agriculture system. This indigenous knowledge is obtained hereditarily through the life experience in the interactions with the surrounding environment. By owning the indigenous knowledge, it can make the paddy agriculture in the tidal swampland sustainable. This research aimed at identifying and describing the indigenous knowledge of Banjarese tribe farmers in the tidal swampland which is commonly practiced until today. The method used in this research was a qualitative method with an ethnographic approach. In the research data collection, observation technique, documentation, and in-depth interview were used. The subjects of this study were the Banjarese tribe farmers who are supported by the key informant. The data analysis technique was conducted with triangulation technique. The research results showed that the Banjarese tribe farmers have the indigenous knowledge on season determination, land selection, land management, seed selection, planting, and harvesting. The implication of this study can give the information to the planning and development of agriculture in tidal swampland by the relevant agencies, realize the sustainable cultivation concept through the land conservation with the tapulikampar system, anticipate the crop failure, and realize the food sovereignty. @ EM International.</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Perceptions of agrodiversity and seed-saving practices in the northern Andes of Ecuador</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Background: As concerns about agrodiversity loss and its impact on food security increase, interest in seed-saving practices and motivations has risen, especially in regions characterized by ancestral farming. Agroecology practitioners in the northern Andes of Ecuador (n = 65) participated in this study to describe (1) the dynamics of intergenerational agrodiversity, (2) perceptions of relevance of the crops they grow, (3) criteria for characterizing the differences between conventional and non-conventional seeds, and (4) their seed-saving practices. Methods: This exploratory study incorporated a community-based participatory research approach using mixed methods. We conducted (1) a timeline mapping for exploring the dynamics of intergenerational agrodiversity and (2) structured interviews to explore the perception of relevance of crops grown to identify criteria for characterizing conventional and non-conventional seeds and for identifying seed-saving practices. We computed ranks and frequencies from free listing data derived from the interviews to detect the most salient patterns for crop diversity and seed-saving practices. A principal component analysis was performed to illustrate crops distribution within the study area. Results and discussion: Based on the timeline-mapping tool, we found that participants perceive an intergenerational loss of agrodiversity. Data derived from free listing determined that salient crops differ in each location of the study area, mostly due to geographic (altitude, climate), market factors, and crop management limitations. Responses from open-ended interview questions revealed that farmers discriminate conventional from non-conventional seeds using yield, adaptation to local conditions, pest tolerance, taste, and crop management as criteria. Analysis of free listing data determined that the most salient reported practices related to seed saving were soil fertility management, seed selection, safe seed storage, tilling and rowing, and weeding. Conclusions: This study contributes to raising awareness of intergenerational agrodiversity loss and replacement with modern crops. We found the relevance of crops and practices is subject to cultural and environmental context, and few agricultural practices are exclusively used for seed saving. Further, farmers clearly discriminate conventional from non-conventional seeds based on advantages and disadvantages, cultural motivation, and produce destination. The community-based participatory approach resulted in positive engagement from participants and promoted commitment from farmers to preserve agrodiversity and support practices at the community level. © 2019 The Author(s).</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>History and challenges of Brazilian social movements for the achievement of the right to adequate food</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>The historical struggles that Brazil faced to overcome malnutrition coincided with the empowerment of civil society and social movements which played a crucial role in the affirmation of health and food as social rights. After two decades under military dictatorship, Brazil went through a redemocratization process in the 1980s when activism emerged to demand spaces to participate in policy-making regarding the social agenda, including food and nutrition security (FNS). From 1988 onward institutional structures were established: the National Council of FNS (CONSEA) convenes government and civil society sectors to develop and monitor the implementation of policies, systems and actions. Social participation has been at the heart of structural changes achieved since then. Nevertheless, the country faces multiple challenges regarding FNS such as the double burden of disease, increasing use of pesticides and genetically modified seeds, weak regulation of ultra-processed products, and marketing practices that affect the environment, population health, and food sovereignty. This article aims at examining the development of the participatory political system and the role played by Brazilian social movements in the country’s policies on FNS, in addition to outlining challenges faced by those policies. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sowing the seeds of resilience: a case study of community-based Indigenous seed conservation from Andhra Pradesh, India</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Despite increasing evidence of threats to Indigenous food systems, many Indigenous communities are innovating to enhance their resilience while conserving and promoting their traditional food systems, offering important lessons for rural development policy. This community-based case study explores one such Indigenous initiative: Sanjeevini, in Andhra Pradesh, India. Sanjeevini has been effective in designing and implementing creative strategies for seed sovereignty and biocultural conservation. Interviews with key persons associated with Sanjeevini (n = 8) and participatory field-research in the Araku Valley region, including interviews with small scale farmers (n = 30), revealed community development strategies emphasising a link between biological and cultural heritage in Indigenous food systems. These include hosting cultural seed festivals, establishing and maintaining community-based seed banks, and facilitating inter-community seed exchanges. Importantly, these strategies take place against a backdrop of community-organising that counteracts the dominant neo-liberal development agenda while resisting deforestation that threatens Indigenous livelihoods. Sanjeevini’s success demonstrates that through the adaptive assertion of self-determination, rural social change is possible. This paper highlights alternative, community-driven articulations of seed sovereignty while underscoring the significance of this community’s own vision in guiding rural innovation and offering promising working models for cultivating rural resilience. © 2019, © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Does indigenous and campesino traditional agriculture have anything to contribute to food sovereignty in Latin America? Evidence from Chile, Peru, Ecuador, Colombia, Guatemala and Mexico</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>The current challenge for world agriculture is to provide food for a growing population, within a context of environmental degradation and economic inequality. The challenge is how to produce accessible, healthy, diverse, nutritious, safe and abundant food in a way that is sustainable, allowing farmers to exert food sovereignty while at the same time addressing ecosystem conservation. The aim of this study is to explore the potential contribution of traditional agriculture to food sovereignty and also to understand the challenges that indigenous communities are facing today. Our case studies are from six Latin-American countries: Chile, Peru, Ecuador, Colombia, Guatemala and Mexico, where we carried out semi-structured, guided visits and field observations. Our results shed light on how traditional agricultural knowledge, techniques and practices can contribute to these issues, but also to the need of protecting and recovering the cultural and ecological heritage. There is a need to resolve public management issues, related to development investment, technological packages, cultural loss and gender. If these are not addressed, the potential contribution of ancient agricultural knowledge will fail to contribute to strengthen food sovereignty and maintain the local markets, which are also places for seed exchange, knowledge sharing and social networking. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Food Sovereignty and Gender Justice</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Food sovereignty asserts the right of peoples to define and organize their own agricultural and food systems so as to meet local needs and so as to secure access to land, water and seed. A commitment to gender equity has been embedded in the food sovereignty concept from its earliest articulations. Some might wonder why gender justice should figure so prominently in a food movement. In this paper I review and augment the arguments for making gender equity a central component of food sovereignty. The most common argument is: if women constitute the majority of the world’s food producers, then agricultural policy is a women’s issue. And insofar as patriarchal social relations continue to dominate the globe, then changing agricultural policies will require explicit attention to gender injustice. I suggest that this is a good argument, but that an ecological feminist perspective can provide additional theoretical reasons for maintaining the centrality of gender justice in food sovereignty discourse. Moreover, ecological feminism can provide a robust theoretical framework that coheres a concept and movement with a wide set of concerns. My critique positions food sovereignty’s call to social justice as embedded in a truly radical re-thinking of dominant conceptual frameworks, and re-envisioning of political and ethical relations. © 2018, Springer Nature B.V.</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Agroecology in Europe: Research, education, collective action networks, and alternative food systems</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Agroecology is considered with different focus and weight in different parts of the world as a social and political movement, as science, and as practice. Despite its multitude of definitions, agroecology has begun in Europe to develop in different regional, national and continental networks of researchers, practitioners, advocates and movements. However, there is a lack of a comprehensive overview about these different developments and networks. Therefore, this paper attempts to document and provide a mapping of the development of European agroecology in its diverse forms. Through a literature review, interviews, active conference participation, and an extensive internet search we have collected information about the current state and development of agroecology in Europe. Agroecological research and higher education exist more in western and northern Europe, but farm schools and farmer-to-farmer training are also present in other regions. Today a large variety of topics are studied at research institutions. There is an increasing number of bottom-up agroecological initiatives and national or continental networks and movements. Important movements are around food sovereignty, access to land and seeds. Except for France, there are very few concrete policies for agroecology in Europe. Agroecology is increasingly linked to different fields of agri-food systems. This includes Community Supported Agriculture systems, but also agroecological territories, and some examples of labelling products. To amplify agroecology in Europe in the coming years, policy development will be crucial and proponents of agroecology must join forces and work hand-in-hand with the many stakeholders engaged in initiatives to develop more sustainable agriculture and food systems. © 2018 by the authors.</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Where we dance (ecologically) together: reading Ananya Dance Theatre’s Roktim: Nurture Incarnadine</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>In September 2015, Ananya Dance Theatre premiered Roktim: Nature Incarnadine, an evening-length dance about women of color, seeds, food systems, and soil. Roktim weaves dancers’ biographies with myth, history, and science to form an epic narrative intersecting environment and social difference—an environmental justice biomythography. This work is an unconventional example of an environmental dance in both aesthetic and content. Through a year of ethnographic fieldwork and participation with the company, I explore aspects of Roktim and how my own body becomes implicated in the work. Using literature from eco-dramaturgy, eco-criticism, dance studies, and environmental justice, I consider how the performance and a reading of it contributes a corporeal perspective to critical sustainability. © 2018, AESS.</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>The rise of new rights for peasants. From reliance on NGO intermediaries to direct representation</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>The UN Declaration on the Rights of Peasants and other people working in rural areas, adopted by the UN General Assembly in December 2018, recognises new human rights to peasants and other people working in rural areas. The recognition of these rights (such as the right to land, seeds or biodiversity) in international law responds to a normative gap identified by the affected themselves and contributes to the project of ‘decolonising’ human rights. This international law-making process constitutes an important innovation in that it was requested by and developed with the active involvement of La Via Campesina activists—and other transnational movements representing other categories of rural food producers—who have positioned themselves as ‘law makers’. In this paper, I argue that a commitment to ‘human rights from below’ must account for and support the direct engagement, in international law-making, of transnational social movements representing the affected and speaking on their own behalf. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Farmers’ rights, local food systems, and sustainable household dietary diversification: A case of Uttarakhand Himalaya in north-western India</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>The farmers and rural communities, world over, have contributed greatly in management of agrobiodiversity including plant genetic resources for food and agriculture (PGRFA). It is well accepted now that the efforts of farming communities in creation, conservation, exchange, and enhancement of PGR should be recognized and strengthened. Farmers’ access and rights over seeds are considered an essential component of food sovereignty. In the present article, we discuss the aspects of farmers’ rights, the community level seed systems, food sovereignty and the potential of farmer household production and dietary diversification in combating malnutrition and community health promotion with regard to farming communities of Uttarakhand hills in north-western India. Salient findings of two case studies, on farmers’ varieties documentation and registration, and the potential of local food systems in addressing community health and nutrition were used to particularly showcase the nutritional contribution of native foods in the context of sustainable food-based approaches to community health and nutrition. Further, the need of a proactive alliance was suggested between local communities and their key allies collaboratively creating a research and advocacy agenda in support of agrobiodiversity and the revival of local food systems and landscapes within the broader framework of food sovereignty. © 2018 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>The Protection of Indigenous Peoples’ Seed Rights during Ethnobotanical Research</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Recognion of the importance of biodiversity for global food security and the community food sustainability movement has helped increase awareness of seed rights. Internaonal treaes created to ensure the world’s access to seed biodiversity address access to seed banks for breeding purposes. Ethnobotanists are oen required to deposit research plant specimens with government seed banks or herbariums. If Indigenous Peoples’ plants are then used developing patented variees, are their rights recognized? These rights depend upon recognion of Indigenous Peoples as plant breeders, prior informed consent (PIC) protocols, access and benefit sharing (ABS) agreements via material transfer agreements, and benefits returned to Indigenous and local communies per the Nagoya Protocol. To ensure such rights to genec material and associated intellectual property rights, documentaon of these agreements and links to the people and communies from which they originated needs to occur at first collecon and throughout subsequent research, conservaon, and breeding programs. Copyright © 2018 by the author(s);</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Seed laws, certification and standardization: outlawing informal seed systems in the Global South</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>A series of relatively new seed laws are becoming novel mechanisms of accumulation by dispossession in agriculture. Many researchers have argued that intellectual property rights (IPR) laws that apply to living materials dispossess people of seeds by privatizing germplasm. What these authors have not addressed is the role that non-IPR-related seed laws play in the seed enclosure. I argue that we should pay more attention to the implications of seed laws and regulations that do not deal directly with IPR issues, because they are also being used to outlaw practices that are necessary for the functioning of informal seed systems. As a result, they are setting the stage for the further erosion of seed sovereignty and are becoming an additional threat to an already waning agro-biodiversity, with direct consequences for farmers’ livelihoods. These seed laws establish certification requirements and quality standards for the marketing and/or exchange of seeds. I use the example of contemporary Colombian seed politics to illustrate how and why certification requirements and quality standards are currently being introduced throughout the Global South. I draw on insights from the standards literature in order to explain the power, limitations and consequences of these laws. © 2016 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sovereignty, Risk and Biotechnology: Zambia's 2002 GM Controversy in Retrospect</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>The southern African food crisis of 2002 led to one of the most significant controversies over the use of genetically modified (GM) crops in the developing world to date. Zambia's staunch opposition to GM food aid during the crisis is still frequently used as a reference point in debates over GM seed technology in agricultural development, and the morality of advanced biotechnology. This article re-examines the controversy and its contemporary relevance using oral history interviews with key scientists, policy makers and development practitioners engaged in debates and decision-making processes in Zambia in 2002, alongside a review of discourses in the Zambian press. The author argues that, rather than different perceptions of health and environmental risks derived from GM crops, it was questions of sovereign regulatory control of technology in a context of diminished state capacity - and the decline in the Zambian state's capacity for agricultural science research in particular - that played a central role in shaping anti-GM attitudes. In addition, trust in the arguments of GM advocates was diminished by communication efforts which treated Zambian scientists and policy elites as a lay rather than an expert audience. © 2015 International Institute of Social Studies.</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Critical food systems education (CFSE): educating for food sovereignty</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Food systems education can help individuals and communities transition to more sustainable food systems. Despite the growing scholarship on food systems education, there is a paucity of critical perspectives on its pedagogical methods, learning outcomes, and overarching objectives. This article addresses this gap by integrating insights from critical pedagogy, food justice, food sovereignty, and agroecology, developing a new synthetic area of study and research entitled critical food systems education (CFSE). CFSE is composed of a tripartite perspective, consisting of praxis, policy, and pedagogy. This framework is guided by the following overarching question: How can food systems education prepare individuals and teachers to transform the food system, and help communities attain food sovereignty? Following a review of the food systems education literature, we highlight the constraints of the depoliticized approach by drawing attention to its race and class-based assumptions. We then construct a definition of CFSE, and articulate the theoretical and practical cornerstones of this perspective, which are drawn from critical pedagogy, food justice, food sovereignty, and agroecology. A case study of a seed sovereignty project at a vocational high school associated with Brazil’s Landless Workers Movement is used to exemplify how CFSE can contribute to educating for food sovereignty. © 2016 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Seed exchange networks and food system resilience in the United States</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Seed exchange is a multidimensional issue with social, political, economic, and agricultural implications. There is a growing concern about the increase of the food system’s vulnerability as a result of loss of agricultural biodiversity. Farmers’ ability to replant, exchange, and distribute saved seed is a way to minimize their dependence on commercial suppliers and thereby maintain control over farming practices. Seed saving is also crucial for conservation because the process of choosing, replanting, and exchanging seeds relies on and increases diversity on the farm and in communities. Seed exchange networks, formal and informal ways that farmers engage alongside institutional plant breeding systems, help to conserve agricultural, social, and cultural diversity and identity as well as enhance resilience against environmental and economic shocks. However, how to build resilient seed systems and move from the innovative but relatively isolated project activities of professionals and farmers to a situation where such approaches are scaled up and networked alongside formal and informal, national and international plant breeding mechanism are a concern. This paper examines grassroots seed exchange through seed libraries, the marketing of new varieties through seed companies, and hybrid civil society-business models to understand their financial and technical abilities as well as challenges they face. Seed exchange networks fulfill an important role in conservation of agricultural biodiversity and building community resilience through their work on breeding, exchange, and propagation of regionally adapted open-pollinated seeds as well as advocacy on seed sovereignty and education on seed saving. © 2015, AESS.</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Lake Superior Manoomin cultural and ecosystem characterization study</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Manoomin, wild rice, is integral to the culture, livelihood, and identity of the Anishinaabeg, the indigenous peoples of Canada and the United States that include the Odawa, Ojibwe, Potawatomi, and Algonquin peoples. In addition to the vital role Manoomin has in the lives of the Anishinaabeg, Manoomin is recognized as being ecologically important, feeding migrating and resident wildlife species, providing a nursery for fish and nesting and breeding habitats for many waterfowl and muskrat, and stabilizing shorelines. This study was initiated by a team of Lake Superior basin Anishinaabe communities and federal and state agencies to document and characterize (1) the importance of Manoomin habitat to Anishinaabe cultural perspectives and identity, community connections, spiritual practices, food sovereignty, and food security; and (2) the ecological importance of Manoomin habitat as an indicator of a high-quality, high-functioning, and biodiverse ecosystem. The team applied a set of cultural and ecological metrics to characterize seven case study sites around Lake Superior and used a habitat equivalency analysis to determine the amount of restoration needed to counterbalance the lost Manoomin habitat functionality. Results from this study highlight the difficulty in restoring the cultural and ecological functionality of degraded Manoomin habitat and the importance of preserving and protecting existing Manoomin habitat. © 2023 by the author(s).</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Breeding sovereignty: the production of race, nature, and capital in Venezuela</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>This article explores the efforts of the Venezuelan government to improve food security and rural livelihoods with an experimental cattle-breeding project. It investigates the activities of a state enterprise in the western plains and how the selective-breeding practices of veterinary experts intersect with the logic of capital and biopolitics. Contributing to debates on the interaction between society and environment, the analysis suggests that ‘endogenous development’, or the reduction of poverty through internal markets, draws on systems of knowledge that treat the biology of animals as a field of intervention for the resolution of social contradictions. To reduce reliance on petroleum rent and food imports, Venezuelan experts have sought to create a new breed of cattle suited to the nation's diverse ecologies. But the knowledge systems which guide this project are embedded with a host of cultural and economic assumptions that subvert the successful application of this biotechnology. Ultimately, this article seeks to increase knowledge of the techno-politics of resource states at the start of the twenty-first century and the ways in which cultures of expertise impact food sovereignty. © Royal Anthropological Institute 2023.</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>High-yield dairy cattle breeds improve farmer incomes, curtail greenhouse gas emissions and reduce dairy import dependency in Tanzania</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Tanzania’s dairy sector is poorly developed, creating reliance on imports for processed, value-added dairy products and threatening food security, particularly when supply chains are disrupted due to market volatility or armed conflicts. The Tanzanian Dairy Development Roadmap is a domestic development initiative that aims to achieve dairy self-sufficiency by 2030. Here, we model different outcomes of the roadmap, finding that adoption of high-yield cattle breeds is essential for reducing dairy import dependency. Avoided land use change resulting from fewer, higher yielding dairy cattle would lead to lower greenhouse gas emissions. Dairy producers’ average incomes could increase despite capital expenditure and land allocation required for the adoption of high-yield breeds. Our findings demonstrate the importance of bottom-up development policies for sustainable food system transformations, which also support food sovereignty, increase incomes for smallholder farmers and contribute towards Tanzania’s commitments to reduce greenhouse gas emissions. © 2022, The Author(s), under exclusive licence to Springer Nature Limited.</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Politics of law of the protection of plant variety (Pvt) and its implications for food security in indonesia: A maqashid al-shari'ah perspective</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>The birth of the Law on Plant Variety Protection (PVP) is a consequence of Indonesia in its participation as a signatory country for the GATT/WTO agreement, which one of the series of agreements contains Trade-Related Aspects of Intellectual Property Rights (TRIPs). This agreement implies that after ratification, Indonesia must harmonize legislation in the field of intellectual property rights with the approval of TRIPs, including in the field of Plant Variety Protection. Philosophically there are several provisions in the PVP Law that need to be observed. One of them is the focus of this law that prioritizes economic interests and breeder rights rather than farmer rights. By using qualitative research and philosophical approach, this study concludes: First, in the perspective of politics of law, the protection of plant varieties in Indonesia has not been based on an ideal basis of Indonesian politics of law. Ideally, the stipulation of law in Indonesia must prioritize an ideological and normative basis that originates from Pancasila and the UUD 1945 as central values and are essential to Indonesian politics of law. Second, Plant Variety Protection in Indonesia is still oriented to food security, not to the limit of food sovereignty. The orientation of the Law on PVP should lead to efforts to liberate this country from the element of dependence on other countries by leading to food sovereignty. Third, in the perspective of Maqashid Sharia, the protection of Plant Varieties in Indonesia has not yet described efforts to create benefit for the Indonesian nation as a whole. The nature of Maqashid sharia is a benefit that rests on the interests of society in general. © IJSTR 2020.</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>An initiative for the study and use of genetic diversity of domesticated plants and their wild relatives</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Domestication has been influenced by formal plant breeding since the onset of intensive agriculture and the Green Revolution. Despite providing food security for some regions, intensive agriculture has had substantial detrimental consequences for the environment and does not fulfill smallholder’s needs under most developing countries conditions. Therefore, it is necessary to look for alternative plant production techniques, effective for each environmental, socio-cultural, and economic conditions. This is particularly relevant for countries that are megadiverse and major centers of plant domestication and diversification. In this white paper, a Mexico-centered initiative is proposed, with two main objectives: (1) to study, understand, conserve, and sustainably use the genetic diversity of domesticated plants and their wild relatives, as well as the ongoing evolutionary processes that generate and maintain it; and (2) to strengthen food and forestry production in a socially fair and environmentally friendly way. To fulfill these objectives, the initiative focuses on the source of variability available for domestication (genetic diversity and functional genomics), the context in which domestication acts (breeding and production) and one of its main challenges (environmental change). Research on these components can be framed to target and connect both the theoretical understanding of the evolutionary processes, the practical aspects of conservation, and food and forestry production. The target, main challenges, problems to be faced and key research questions are presented for each component, followed by a roadmap for the consolidation of this proposal as a national initiative. © 2018 Mastretta-Yanes, Acevedo Gasman, Burgeff, Cano Ramírez, Piñero and Sarukhán.</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Agrobiodiversity Under Different Property Regimes</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Having an adequate and extensively recognized resource governance system is essential for the conservation and sustainable use of crop genetic resources in a highly populated planet. Despite the widely accepted importance of agrobiodiversity for future plant breeding and thus food security, there is still pervasive disagreement at the individual level on who should own genetic resources. The aim of the article is to provide conceptual clarification on the following concepts and their relation to agrobiodiversity stewardship: open access, commons, private property, state property and common heritage of humankind. After presenting each property regime, we will examine whether and how these incentivize the conservation, improvement and sharing of crop genetic resources, and conclude by defending a mixed property regime. © 2016, Springer Science+Business Media Dordrecht.</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Breeding Apples for Oranges: Africa's Misplaced Priority Over Plant Breeders' Rights</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>In 2000, African countries expressed reservation over the adoption of UPOV Act of 1991 as a model of plant breeders' rights (PBRs) for TRIPS-compliance. For the continent, an acceptable system of PBRs protection would include the protection of the rights of communities and associated indigenous knowledge, innovations, technologies and farming practices. One and half decades after, Africa has virtually reversed itself and embraced the UPOV-PBRs system notwithstanding the latter's narrow focus on breeders and marginal reference to farmers. This Article critically explores the concerted sites of pressures, especially free trade and economic partnership agreements, and related policies through which Africa appears to have capitulated and upturned its policy position on PBRs. The continent's present priority over the implementation of PBRs through various regional and national legal initiatives currently at the instance of African Intellectual Property Organization (OAPI), the African Regional Intellectual Property Organization (ARIPO), the Southern African Economic Community (SADC) and specific country initiatives are explored. The article highlights the basis for the incongruity of Africa's newfound interest in the UPOV-PBRs system-a regime not designed for the farmer-centered tenor of African agriculture. It calls attention to the continued relevance of Africa's 2000 Model Law, especially as it applies to PBRs and recommends reality assessment as an important step toward the formulation of IPRs system suited for stakeholders in African agriculture for the continent's food security and food sovereignty. © 2015 John Wiley &amp; Sons Ltd.</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Land competition and welfare effects from Mexico's proposal to ban genetically engineered corn</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Since joining the North American Free Trade Agreement, Mexico has increased its meat production and exports and become more dependent on imported feedstuffs such as genetically engineered (GE) corn. Mexico recently banned the use of GE corn in corn-based foods and called for a gradual substitution away from the use of GE corn for other uses (e.g., feed). This paper considers how a complete ban on GE corn might affect Mexican households using a computable general equilibrium (CGE) model to simulate the impact over the medium run (5 years). Results indicate that Mexico decreases corn imports by 76.9% and increases corn production by 65.6%—an increase that would require 3.3 million hectares more land for corn. The policy leads to a 24.8% increase in Mexico's corn price and up to a 6% increase in the prices of other agricultural products. But Mexico might have difficulty shifting land to corn; as such, we consider an alternative scenario that restricts land movements. We find that impacts are further exacerbated in this scenario—for example, corn prices triple. Our final contribution is to pair these results with a compensating variation calculation based on the almost ideal demand system. We find that Mexican households would need to spend, on average, between 6.7 and 13.9% more on food, depending on the scenario, to compensate for the resulting price escalations. Ultimately, our results show that a move toward greater food sovereignty in Mexico is ultimately borne by consumers via higher food prices. Published 2024. This article is a U.S. Government work and is in the public domain in the USA.</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Accessing biological control genetic resources and sharing benefits resulting from their utilization</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>With the adoption of the Convention on Biological Diversity (CBD) in 1992, the sovereign rights of states over their natural resources were explicitly recognized and the authority of national governments to determine access to genetic resources confirmed. The CBD had a major impact on the global exchange of genetic resources, including genetic resources for food and agriculture. At national level, the CBD triggered the development of access and benefit-sharing (ABS) measures through which governments aim to enforce national sovereignty over genetic resources with the aim to partake in the benefits derived from the use of these resources. At global level, the CBD triggered multiple normative initiatives, including the adoption of an international instrument on plant genetic resources and the development of a Protocol to the CBD. The history of the Commission on Genetic Resources for Food and Agriculture, established in 1983 by the Food and Agriculture Organization of the United Nations (FAO), is paradigmatic for the historical transition from “common heritage” to “national sovereignty” over biological diversity, including genetic resources. This article briefly recapitulates key milestones in the development of ABS policies and measures. The article identifies some of the difficulties ABS measures may create for relevant stakeholders, in particular the biological control sector and explores options for this sector to cope with the new reality of the Nagoya Protocol and the diversity of national ABS measures. It is of pivotal importance that national governments when developing and implementing ABS measures take into account the distinctive needs and features of the food and agriculture sector, including those of the biological control sector. © 2023, Food and Agriculture Organization of the United Nations, under exclusive licence to International Organization for Biological Control.</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Flavour, culture and food security: The spicy entanglements of chile pepper conservation in 21st century Mexico</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Political interests and power structures shape state-led crop conservation and food policy. As a crop that relates to culture and belonging, the chile crop is ideal for exploring how food security policy and crop conservation schemes integrate aspects beyond staple crops, calories and/or electoral incentives. What do these schemes mean for the food and ingredients we love? Reflecting from this perspective can be useful to grasp, re-frame and create more effective and inclusive food policies—ones that embody and valorise flavour, identities and territories beyond statements on paper. Summary: In line with the Food and Agriculture Organisation's (FAO) international action plan for crop genetic resources, the Mexican state inaugurated the National System of Genetic Resources for Food and Agriculture (SINAREFI) in 2002. In this paper, I explore SINAREFI's interest in landraces and in situ conservation through the case of chile pepper, set under the Ministry of Agriculture's interests of promoting industrial agriculture and paternalistic food security welfare programmes. Through the analyses of existing literature on food security in Mexico state programmes, archival work and interviews, this article analyses how discourses on food security shape research trajectories, some of which are inevitably constrained by current market-based agricultural systems. By exploring the state's chile research and conservation programme, this work demonstrates the complexity of international food security discourse and its application domestically. Particularly, this analysis highlights the limitations of state crop research and conservation efforts imposed by contradictory agricultural policies. In the case of chile, its link to Mexican culture and diet uncovers an important, but often overlooked, aspect of food security: flavour. In the case of chile, a non-staple but culturally symbolic crop, welfare programmes remained paternalistic and focused on caloric intake despite the transformation of national discourse on food security towards the integration of landraces and local cultures through the inauguration of SINAREFI. This case study reflects on the limits of current framings and strategies regarding food security and the need to direct policies towards local food sovereignty to achieve the necessary stability for food security to endure. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>The Rise of Asia-Pacific Agribusiness in the Global South—The Corporate Food Regime Under the Third Regionalism</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Food regime theory asserts that the Global North has controlled food production chains since the 1800s, establishing a corporate food regime in the late 1980s. Through liberalization, Northern food corporations became powerful, leading the contemporary food regime and even replacing states. However, Global South corporations in the Asia-Pacific have grown to become important players in corporate food regimes. Through a literature review, content analysis, and interviews, this study leverages Third Regionalism as the theoretical approach to supplement the food regime theory, and explains how Third Regionalism featured free trade agreements established by Asia-Pacific countries, and how it supported the rapid rise of Southern food corporations. Regionalism helped Asia-Pacific Southern corporations become important figures in the contemporary corporate food regime, reinforcing the Global South’s food security and the livelihood sovereignty aspect of food sovereignty. The stances of Global South food sovereignty groups toward genetically modified crops are shifting and worthy of continued consideration. © The Author(s) 2023.</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Banana Brokers: Communicative labor, translocal translation, and transnational law</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>In contrast to hierarchical models of international law, contemporary transnational law is constituted by networks of states, international institutions, multinational corporations, and transnational activists struggling for power by producing competing norms. This essay examines how power is constructed and contested in transnational law through competing social practices of translation. By ethnographically analyzing the conflict over the "Super Banana"-a genetically modified crop funded by the Bill and Melinda Gates Foundation-I show how the circulation of transnational assemblages engender networks of translation that compete for interpretive authority. I argue that translocal translation can be distinguished from hegemonic practices of transnational translation based on translators' material and symbolic resources, epistemologies, and practices of commensuration. In doing so, this essay illuminates the often unrecognized differences in communicative labor that constitute contemporary forms of global legality. © 2018 by Duke University Press.</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Dealing with rejection: An application of the exit-voice framework to genome-edited food</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Genome editing has been hailed as both a revolutionary technology and potential solution to many agriculture-related and sustainability problems. However, owing to the past challenges and controversy generated by widespread rejection of genetic engineering, especially once applied to agriculture and food production, such innovations have also prompted their fair share of concern. Generally speaking, much of the discussion centers on the inadequacy or uncertainty of current regulatory regimes, partly owing to the vastly different approaches in the European Union and United States. Insofar as this focus on regulatory regimes is stimulated by the desire to bridge the divide between proponents and critics of genome editing, it risks losing sight of an essential aim of regulatory action: effectively responding to and fostering trust in consumers and the public. In this article, we thus assign priority to understanding the contours of individual dissatisfaction and its related responses. Toward this end, we apply and extend Hirschman's exit-voice framework to bring together, synthesize, and give much-needed substance to the diverse expressions of dissatisfaction and discontent with novel genome-editing technologies. Through the resulting synthetic framework, we then identify and evaluate which governance approaches can prevent actions seen to be problematic and, moreover, open up the space for a more active public. In this context, we devote specific attention to (i) use of labeling as a means to enable "exit" of consumers from markets and (ii) public deliberation as a possible expression of "voice." Indeed, both options are proposed and utilized in the context of genome editing, e.g., as a way for skeptical consumers to express their viewpoints, seek change in prevailing food systems, and navigate the conflicts and tensions from applying unique sets of values to assess the balance of risks and benefits. So far missing, though, is an evaluation of how well such efforts offer effective means for public expression, which is why we also link this framework to the wider issue of consumer sovereignty. Having done so, we conclude with a brief commentary on the potential and limitations of both options in the existing institutional framework of the EU. © 2019 Bartkowski and Baum.</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>New materialist feminist ecological practices: La via campesina and activist environmental work</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Within the context of new theoretical developments in environmentalist materialism, as inflected by gender issues, this paper attempts to analyze the important work of La Via Campesina (women's section) both in grassroots activism and in creating a feminist agenda for the transformation of human-non-human connections. Methodologically, this paper proceeds by historically situating La Via Campesina and the progressive incorporation of women's issues as part of the movement. In parallel, La Via Campesina's insurgent practices of contestation to the exploitation of huge multinational agrobusinesses, to genetically modified crops, and to land-grabbing practices and land usurpation from indigenous populations are illustrated. In conclusion and within the frame of new materialisms, my discussion addresses issues of response-ability, sustainability, and co-habitation to reflect upon the major changes brought about by these new modes of thinking and inhabiting the planet. © 2019 by the authors.</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Utopia, food sovereignty, and ethical fashion: The narrative power of anti-GMO campaigns</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>The idea of utopia has become pervasive in the age of everyday humanitarianism. Digital media communicate utopian ideas that allow people to “do good” for vulnerable others and the environment. At the same time, campaigns mobilize citizens by invoking apocalyptic images, such as genetically modified (GM) “monster” foods. This article looks at the construction of utopian and apocalyptic narratives in social movement campaigns and how they contribute to the construction of identities in the campaigns against GM food and Bt cotton, especially in India. Based on an analysis of campaign material, we show that “organic food” and “ethical cotton” products would be less successful without the concurrent use of apocalyptic narratives. Narratives that are more radical enabled the anti-GM food movement to mobilize large resistance. By contrast, a more inclusive narrative approach in the cotton/textile sector risks supporting interests that are detrimental to social justice and environmental protection. © 2018 Caucus for a New Political Science.</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Beyond access and benefit-sharing: Lessons from the law and governance of agricultural biodiversity</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>The concept of fair and equitable benefit-sharing emerged in the early 90s as a corollary to the principle of national sovereignty over natural and genetic resources. In the context of agricultural biodiversity use, it can be conceptualized in three ways: as a defensive tool to balance the injustices enshrined in the intellectual property rights system; as a development tool to reap part of the benefits of the emerging biodiversity market; and as an incentive, to reward and enable farmers' continued contribution to conservation. This article seeks to assess the potential of the concept in operationalizing fairness and equity in agricultural biodiversity governance, in an increasingly complex legal and policy landscape of conflicting rights and policies. It briefly explains its emergence in the context of the evolving principles of governance of agricultural biodiversity; and analyses the structure and application of the Multilateral System of Access and Benefit-sharing established by the International Treaty on Plant Genetic Resources for Food and Agriculture in the framework of intellectual property- and human rights-related processes. Identifying linkages, challenges and key lessons, which are useful for a wide range of processes within and beyond the international environmental law realm, it concludes that the concept falls short of its promises. It thus calls for imagining new dialogues and concepts to redefine the boundaries between what must remain in the public domain, what may be managed as a commons and what may be privatized. © 2018 The Authors. The Journal of World Intellectual Property © 2018 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Food sovereignty as decolonization: some contributions from Indigenous movements to food system and development politics</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>The popularity of ‘food sovereignty’ to cover a range of positions, interventions, and struggles within the food system is testament, above all, to the term’s adaptability. Food sovereignty is centrally, though not exclusively, about groups of people making their own decisions about the food system—it is a way of talking about a theoretically-informed food systems practice. Since people are different, we should expect decisions about food sovereignty to be different in different contexts, albeit consonant with a core set of principles (including women’s rights, a shared opposition to genetically modified crops, and a demand for agriculture to be removed from current international trade agreements). In this paper we look at the analytical points of friction in applying ideas of food sovereignty within the context of Indigenous struggles in North America. This, we argue, helps to clarify one of the central themes in food sovereignty: that it is a continuation of anti-colonial struggles, even in post-colonial contexts. Such an examination has dividends both for scholars of food sovereignty and for those of Indigenous politics: by helping to problematize notions of food sovereignty and postcoloniality, but also by posing pointed questions around gender for Indigenous struggles. © 2014, Springer Science+Business Media Dordrecht.</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Return to Freedom: Anti-GMO Aloha ‘Āina Activism on Molokai as an Expression of Place-based Food Sovereignty</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Abstract: This paper explores the concept of food sovereignty on the island of Molokai, where the Hawaiian value of aloha ‘āina, or love for the land, guides local efforts to preserve and promote local food production. This organizing concept also has political undertones—food sovereignty requires access to land and resources, both of which Native Hawaiians have historically been dispossessed of since colonial contact. In the paper, I examine current anti-genetically modified organism (GMO) activism as one example of the uniquely Hawaiian food sovereignty efforts taking place on Molokai. I present two key arguments. First, I show how the anti-GMO platform, which has garnered support from both native Hawaiians and more recent settlers, reflects a strategic alliance that gives greater momentum to Hawai‘i's food sovereignty movement, which in turn is viewed by a growing number of Native Hawaiians as a pathway toward Indigenous sustainable self-determination. I also draw from the Molokai case to illustrate a perceived tension between community-based work and political engagement that exists within both the food sovereignty paradigm and the contemporary Indigenous sovereignty framework. I argue that aloha ‘āina as a cultural and political praxis suggests ‘ways out’ of this apparent paradox, by showing how Hawaiians have historically engaged simultaneously in both community-based practices and political activism as a means to care for their land and people. While food sovereignty on Molokai calls for the privileging of place-based knowledge, there are lessons to be learnt for social movements elsewhere that are also struggling internally to deconstruct and define what is meant by food sovereignty, and how best to achieve it. © 2014 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Signs of agricultural sustainability: A global assessment of sustainability governance initiatives and their indicators in crop farming</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CONTEXT: To address sustainability challenges in agriculture, private and multi-stakeholder initiatives increasingly use sustainability indicators to monitor the sustainability impact of farms. These indicators can be part of standards for certification or assessment tools to measure farm performance. While these initiatives play an important role in navigating the sustainability transition, insight in how these governance initiatives operationalize sustainability in crop farming is lacking. OBJECTIVE: This paper examines how private and multi-stakeholder governance initiatives, which increasingly regulate the sustainability of a sizeable portion of agriculture globally, operationalize the concept of sustainability. It provides understanding into which sustainability themes are commonly included in sustainability initiatives, and those that are not, which can give insight into the direction these initiatives are steering crop production worldwide. METHODS: We developed an overview of governance initiatives using databases and existing research on sustainable agriculture initiatives. Documentation about these initiatives was gathered and used to systematically review descriptive and institutional characteristics of the 29 sustainability assessment and standard initiatives. Moreover, we analyzed the kinds of indicators (i.e., performance, practice, and target) and the themes that are prioritized in the environmental, social, and economic dimensions of sustainability. RESULTS AND CONCLUSIONS: The analysis shows that the 29 initiatives are very diverse in their characteristics. While some specifically focus on one crop or country, others operate across production chains and at a global scale. Within specific sectors or countries, certain standards are quite influential, for instance, the Better Cotton Initiative covers 22% of global cotton production, while in Ireland, 70% of horticulture farmers are Origin Green certified. Globally, 2% of the crop land is certified under one of the 14 standards that reported land use. Our analysis of sustainability themes show an imbalance across environmental, social, an economic sustainability, with environmental sustainability being prioritized. In particular, social themes such as quality of life, food sovereignty and fair trading practices were less often included (38, 24 and 21% respectively). SIGNIFICANCE: Sustainability standard and assessment initiatives govern a substantial and growing portion of global cropland. They play a central role in determining what is considered sustainable and thereby influence which farming practices are applied worldwide. The impact of these initiatives is likely to continue to grow as sustainability assessments and standards become more widely adopted. In examining a large sample of standard and assessment initiatives, this study presents a comprehensive overview of the current state of sustainability indicators for crop farming globally. © 2023</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>“First we eat and then we sell”: participatory guarantee systems for alternative sustainability certification of Bolivian agri-food products</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Expectations and interest are high in participatory guarantee systems (PGS) as a context-specific alternative to third-party sustainability certification. Self-defined criteria, transparency, trust, and accessibility have made PGS an attractive alternative to exogenous certification in local markets in over 70 countries. There is also increasing interest in the possibilities for participatory certification in international trade for family farm-based products such as cocoa or coffee. Bolivia’s PGS was established in 2012. By 2017, the country ranked second (after India) in number of PGS farmers. Since 2019, however, its numbers are declining. Visiting six PGS initiatives, we interviewed 38 persons from production, processing, distribution, support networks, and policymaking on the current situation of PGS in Bolivia; its challenges; its prospects in local, national, and international trade; and the role of Bolivia’s governmental PGS support. While PGS certification in Bolivia faces challenges–including high fees, weak consumer demand, and insufficient links to broader value chains–it displays strong potential to make locally managed sustainability certification more accessible. We recommend that decision-makers ensure accessibility and help promote PGS with consumers. Importing countries could support PGS, in particular by incentivizing access of PGS-certified products to their national markets by recognizing them as organic via peer-to-peer certification. © 2022 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>The contribution of green public food procurement to sustainability: evidence from two case studies in Spain</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Green Public Food Procurement (GPFP) has revealed itself to be an ally for achieving ecological transition objectives, however there is little work attempting to assess its contribution. This work proposes a set of sustainability and health indicators that comprise a tool able to evaluate the performance of GPFP. A Delphi analysis and a participatory process is used to determine Key Performance Indicators that have been tested through two case studies in Spain. The results obtained show that the presence of short marketing circuits and food sovereignty and institutions rooted in the territory contribute to improved economic sustainability and good performance in terms of health. However, for environmental issues the performance is somewhat lacking, as instruments such as renewable energies and the circular economy are not implemented on a local scale. Elements linked to territorial cohesion and social capital are key for the principles of social and labor justice, as well as governance, to prevail. The Mediterranean diet integral to the case studies presented results in adequate health indicators. These types of indicators would be a useful tool for introducing sustainable food certification as a driving force for changing the food model. © 2023 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Food sovereignty in sub-Saharan Africa: Reality, relevance, and practicality</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>The recent discourse on food sovereignty places much emphasis on democracy in determining localized food systems, and whether the food is culturally appropriate while leaning heavily on sustainable agricultural practices such as organic agriculture, ecological intensification, agroecology, nature-based solutions, and regenerative agriculture. Sustainable agricultural practices are intended to ensure that the land is managed without the use of synthetic fertilizers and pesticides, while going further by focusing on improvements on soil and land health. However, what are the practicalities of food activism and relying entirely on nature while yields are still very low in much of sub-Saharan Africa (SSA)? We attempt to answer this question in four main sections: (a) we start by defining the concept of food sovereignty and the associated practices, (b) we highlight some of the main socio-ecological conditions that are common in SSA, and (c) we present evidence of some of the limitations of food sovereignty due to the diversity in ecological, political, cultural, and socio-economic contexts that characterize SSA; finally, (d) we focus on food preferences, marketing and certification aspects. We conclude that agroecology alone cannot solve the multiple objectives of increasing crop productivity and replenishing soil nutrients especially on small farms and relying on natural rainfall. There is an urgent need to combine superior crop varieties and judicious use of external inputs in tandem with the manipulation of the agroecological processes to increase the efficiency of input use and achieve higher food productivity, resilience to climate change, and preservation of the natural resource base in specific locations. Copyright © 2022 Mudombi-Rusinamhodzi and Rusinamhodzi.</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Certification Regimes in the Global Agro-Food System and the Transformation of the Nature-Society Relationship Ecological Modernization or Modernization of Ecology?</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Recent years have witnessed a proliferation of environmental certification regimes in the global agro-food system—a trend characterized as an example of the ecological modernization approach—which emerged largely because of the rise of consumer sovereignty and the neoliberal push for environmental and social “quality” in food production and processing. Based on a robust analysis of global aquaculture, the article argues that the environmental certification regimes privilege some actors, species, and cultures while marginalizing others. While the fundamental tenet of the ecological modernization approach is to shape capitalism by ecological principles, I argue instead that through environmental certification, ecology or nature itself is largely shaped, transformed and restructured to fit into and thereby serve neoliberal global governance and accumulation in a normalized manner. The example of certification regimes is therefore more like a “modernization of ecology” rather than ecological modernization. © 2022</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Rethinking conventionalisation: A view from organic agriculture in the Global South</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>The so-called conventionalisation of organic farming debate revolves around tensions between organic agriculture as an alternative to the dominant agri-food system and the rise of organic agribusiness. A contested issue is the conceptualisation and assessment of the impact of capitalist expansion in the organic sector on the transformative power of alternative agriculture. This article engages with critiques on Guthman's analysis of conventionalisation and the concept of bifurcation. It brings a new perspective to the debate by introducing a case from the Global South, which reveals four different trajectories of organic agriculture development and certification in the Philippines. The expansion of organic farming differs considerably from the general representation in the conventionalisation debate. What becomes central in the debate is not agribusiness dominance but what kind of small farmers are considered the subject and object of organic agriculture development. Rather than rejecting Guthman's political economy approach for creating binary oppositions, the article expands on its analytical potential to understand the empirical heterogeneity of organic forms of production and the conditions for politics that aim to create alternative economic spaces. © 2021 The Authors</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Convivial Agriculture: Evolving Food and Farming Activism in South China</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>The Chinese community-supported agriculture (CSA) movement is notable for advocating a revival of peasant farming and food sovereignty. For the emerging food politics in China, the main focus is the promotion of “ethical” food in the context of food scares. Currently this promotion often relies overwhelmingly on an emphasis of ethics of trust through certification of food by intermediaries. Yet, there is controversy among CSA activists, who question whether a certifying practice can improve the relationship between consumer and producer. This paper will present an emerging alternative approach within Chinese CSA circles that focuses on strengthening participatory culture within the consumer-producer nexus. To do so, I will shed new light on the experience of food and farming activism in South China since the late 1990s. The main focus is an empirical study of Chengxianghui (CXH), an organisation that operates various consumer-led action groups in Guangzhou. In order to conceptualise the approach by the activists, this paper outlines a normative framework referred to as “convivial agriculture” that is based on the Guangdongbased practice of the Participatory Guarantee System (PGS). The framework aims to recognise and negotiate responsibilities among different actors caring for the “agricultural commons.” © 2021. China Perspectives. All Rights Reserved.</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>The many meanings of organic farming: framing food security and food sovereignty in Indonesia</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>This paper contributes to the discourse on food policy, particularly in relation to organic farming in Indonesia. Organic farming was first adopted by non-state actors in Indonesia, by faith-based organisations and then by small farmer associations, while the state support for organic agriculture followed at a later date. The three groups, represented in this study by three case studies, adopt different positions with regard to the definition of organic agriculture and its relevance to food self-sufficiency, food security and food sovereignty. For Bina Sarana Bhakti Foundation (BSB), organic farming is both a spiritual worldview and a practical philosophy. For the Indonesian Peasant Union (SPI), organic agriculture foremost is a political tool to resist global capitalist agriculture. Despite their very different outlooks, both these two civil society organisations see organic agriculture as a post-materialist enterprise directed towards explicitly social-political goals. By contrast, the government’s engagement in organic agriculture, although laced with evocative phrases such as “back to nature”, is driven primarily by visions of developing a new niche market for Indonesian exports. The Indonesian State adopts a one-dimensional productivist definition that excludes different meanings and traditions of organic farming. The reduction of the meaning of ‘organic’ to ‘organically certified products’ excludes farmers who consider that they are practicing organic agriculture. We conclude that there is a strong case to be made that the State should relax its regulatory grip on the organic sector, to create room for sorely needed innovation and cooperation among the different actors involved. © 2019, The Author(s).</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>We don't want to be officially certified! reasons and implications of the participatory Guarantee systems</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Official organic regulation in Europe is based on the third-party certification system to guarantee organic products. Many critics and dissatisfactions have motivated the emergence of other guarantee systems, based on an intense implication of producers and, in some cases, consumers and other local actors, involved in localised agri-food systems. They are called Participatory Guarantee Systems (PGS), and are not recognised as valid guarantee systems by the official organic regulation. In the present paper, we analyse the main differences between the PGS and the third party certification system, deepening on their differentiated social and political implications. We conclude that the procedures behind PGS generate numerous positive impacts in the territories related to local producers (and consumers) empowerment and localised agri-food systems drive, while their implications make them not considered as a substitute to third party certification system, unless certain conditions of social consolidated groups and agroecological and food sovereignty perspective of food system take place. © 2018 by the authors.</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Participatory Guarantee Systems (PGS) in Mexico: a theoretic ideal or everyday practice?</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Third-party certification (TPC), the most common organic certification system, has faced growing criticism in recent years. This has led to the development of alternative certification systems, most of which can be classed as Participatory Guarantee Systems (PGS). PGS have been promoted as a more suitable, cheaper and less bureaucratic alternative to TPC for local markets and are associated with additional benefits such as empowering smallholder farmers, facilitating farmer-to-farmer learning and enhancing food security and sovereignty. PGS have spread rapidly in the past few years, but studies suggest that they are facing numerous challenges that, if not addressed, may jeopardise these benefits. Using the example of three Mexican PGS initiatives, this paper explores the main challenges faced by PGS, specifically those predominantly found in producer-run PGS initiatives. Based on producer and consumer surveys, semi-structured and informal interviews, and participant and non-participant observation, the key challenges that emerged were continuous implementation of the certification process, time constraints, personal conflicts and conflict avoidance. The paper further argues that the requirements for PGS recognition under the Mexican Law for Organic Products may also threaten the continued existence of PGS and suggests that mechanisms for managing conflicts, incentivising PGS participation and mitigating opportunity costs are key if PGS are to continue to develop. © 2017, The Author(s).</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Politics in participatory guarantee systems for organic food production</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>In response to the neoliberal regulation of the organic agri-food sector through third-party certification (TPC), participatory guarantee systems (PGS) are advocated for their potential to promote food sovereignty, inclusivity, and grassroots empowerment. However, we show that in the Philippines, farming groups adopting PGS encounter politics that manifests as tensions and contradictions in the imagination and practice of this seemingly more transformative organic guarantee system. Based on qualitative research, we observed how some members continue to aspire for TPC resulting in cases of double certification (i.e. members having both PGS and TPC). Such contradiction encounters varying levels of contestation, which we attribute to the local particularities of the two PGS systems and the broader structural conditions that continue to privilege TPC. Rather than frame PGS as co-opted by the dominant neoliberalised organic agri-food sector, we emphasise possibilities for farmers’ autonomy in negotiating these tensions. © 2018 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Food professionals’ opinions of the Food Studies curriculum in Australia</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Purpose: The purpose of this paper is to investigate the food system professionals’ opinions of a new senior secondary school food literacy curriculum named Victorian Certificate of Education Food Studies in Victoria, Australia. Design/methodology/approach: A purposive sample of 34 food system professionals from different sub-sectors within the Australian food system was interviewed individually in late 2015 and early 2016. Interviews were analysed using the template analysis technique. Findings: Most participants appreciated the extensive coverage of food literacy aspects in this new curriculum. However, many suggested amendments to the curriculum including pay less emphasis on food history-related topics and pay more focus on primary food production, nutrition awareness and promotion, and food security, food sovereignty, social justice, and food politics. Practical implications: A well-structured, comprehensive secondary school food literacy curriculum could play a crucial role in providing food literacy education for adolescents. This will help them to establish healthy food patterns and become responsible food citizens. The findings of this study can be used to modify the new curriculum to make it a more comprehensive, logical, and feasible curriculum. Moreover, these findings could be used to inform the design of new secondary school food literacy curricula in Australia and other countries. Originality/value: The exploration of perspectives of professionals from a broad range of food- and nutrition-related areas about school food literacy education makes this study unique. This study highlights the importance of food professionals’ opinions in secondary school food-related curricula development. © 2017, © Emerald Publishing Limited.</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Food Security, Food Sovereignty, and Urban Agriculture in Cuba</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>In the last thirty years, Cuba and its capital Havana have become homes to one of the most vibrant urban agricultural movements in the world. This article argues that urban agriculture (UA) became the epitome of a broader movement of “agricultural revolution” that followed the collapse of the previous, capital intensive, monocultural agro-export model. It contends that this transformation revolved around three pillars – land redistribution, agricultural diversification, and agroecology – that account for a transition from food security to food sovereignty. It also presents the results of interviews conducted in Havana with urban farmers to assess the impact that UA has on their family’s diet and food security. The research demonstrates that UA guarantees a heightened feeling of independence to urban farmers and has a tremendous impact on their food security and diversity, most notably through autoconsumption. It also shows that community needs, use value, and the decommodification of food and land are the driving principles of UA in Cuba, which is in line with the food sovereignty model. © 2024 Latin American Perspectives.</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Agroecology for Structural One Health</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Based on colonial capitalist logics, global biosecurity strategies have long relied upon downstream measures of surveillance and control to reduce disease burden and address the rising risk of antimicrobial resistance (AMR). One Health aims to address this through what it describes as a systems approach, yet in failing to grapple with capitalist hegemony, the framework reproduces the microbial and logical diseases it intends to prevent. Calls for a Structural One Health approach embed the principles of agroecology as a pathway toward food sovereignty, joining the calls of peasants, smallholders, Indigenous Peoples, fishers and forest dwellers globally. This paradigm of food production takes a truly ecosystems approach in embedding place-based production systems within political economies centred on human and more-than-human relations rather than on extraction and division. Working outside the standardized monoculture of industrial agriculture, agroecological food producers the world over embrace biodiversity as an effective safeguard against harmful pathology, creating and living the alternative paradigms necessary for unwinding our interconnected planetary crises. One Health without structural integrity is only as strong a framework as status quo production systems and biosecurity measures, serving to reinforce rather than transform the current dominant global system. © 2023, Society for International Development.</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Reuniting the Three Sisters: collaborative science with Native growers to improve soil and community health</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Before Euro-American settlement, many Native American nations intercropped maize (Zea mays), beans (Phaseolus vulgaris), and squash (Cucurbita pepo) in what is colloquially called the “Three Sisters.” Here we review the historic importance and consequences of rejuvenation of Three Sisters intercropping (3SI), outline a framework to engage Native growers in community science with positive feedbacks to university research, and present preliminary findings from ethnography and a randomized, replicated 3SI experiment. We developed mutually beneficial collaborative research agendas with four Midwestern US Native American nations. Ethnographic data highlighted a culturally based respect for 3SI as living beings, the importance it holds for all cultural facets of these Native nations, and the critical impact the practice has on environmental sustainability. One concern expressed by Native growers during ethnographic research was improving soil health—part of the rationale for establishing the 3SI agronomic experiment. To address this, we collaboratively designed a 3SI experiment. After 1 year, 3SI increased short-term soil respiration by 24%, decreased salt-extractable nitrate by 54%, had no effect on soil microbial biomass (but increased its carbon-to-nitrogen ratio by 32%) compared to the average of monoculture crops. The overarching purpose of this collaborative project is to develop a deeper understanding of 3SI, its cultural importance to Native communities, and how reinvigorating the practice—and intercropping in general—can make agroecosystems more sustainable for people and the environment. © 2022, The Author(s).</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Food-Centric Perceptions of Nature in Hong Kong: Urban Anthropology in Conversation with Tim Ingold; [香港以糧為本「自然」識覺： 與Tim Ingold對話都市人類學]</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Nature has multiple meanings in different languages. In the context of this research, even among people who share relatively similar linguistic, ethnic, and historical backgrounds, there are discrepancies regarding the interpretation of this concept. Despite diverse arguments about humannature relations and the improbability of finding a universally accepted definition, this term underlies one of today’s most mentioned topics, sustainable development. People’s understanding of nature significantly influences their opinions, decisions, and actions. Therefore, this paper aims to re-examine the implications and connotations of nature in daily conversations, specifically in the context of food and agricultural activism. This paper sits within the nexus of several seemingly divergent but related theoretical frameworks, including environmental anthropology, urban anthropology, space, place, landscape, agriculture, food politics, food culture, etc. Since ecosystems and landscapes are relocated from the backdrop of an ethnography to the foreground, the rural versus urban dualistic framework is also subject to challenge. One recent development aptly aligns with this paradigm. Farming activities have entered daily life in cities and have become a globally recognised sustainable development element. In Hong Kong, the concepts of edible landscape and horticultural healing are increasingly known to people and becoming popular. Applying Tim Ingold’s phenomenological analysis to my field data, this paper explores how an urban setting shapes Hong Kong residents’ experiences of nature and how such perceptions result in changes in individual behaviours and reflections on agri-food systems and the planning of urban space. In particular, this research speaks to Ingold’s critique of sustainability. He indicates that this terminology is pervaded with nostalgia for pure and romanticised nature. In this sense, nature has a primordial configuration free of human intervention; to achieve sustainable development is to restore the planet to its original state. At first glance, the agricultural activism in Hong Kong and its ‘agriculturalism’, as this paper conceptualises it, seem to fall into Ingold’s depiction. However, this study finds that this ‘agriculturalism’ is not really about holding onto a primitive nature and opposing modern and urban ways of life. Instead, farming practitioners seek to establish a new form of living within a city rather than escaping it. They seek to carve out living space in an expensive city for the non-elite and the grass-roots. They initiated an experiment characterised by sustaining everyday necessities with one’s own hands, growing food, cooking, and making or recycling furniture. They attempt to reconsider their relationship with the more-than-human world by creating a setting where they can stay close to the land. In this way, they believe they can gain knowledge, skill, and sensory and bodily experiences so as not to depend on the consumption system, which, they believe, detaches consumers from producers and raw materials. In the process, the relationship between humans and nature is further reshaped to adjust to local circumstances. According to Hong Kong farming practitioners, this form of life benefits human beings’ physical and mental health and the continuation of the ecological cycle. Despite their having no geographical boundary or community membership, their farms or living spaces become a heterotopia. People in this area talk a lot about environmental ethics, which shows generational differences. However, at the global scale, these ethics resonate with the globally circulating agenda of sustainable development. In present-day Hong Kong, where the post-1997 sovereignty and subjectivity struggles constantly monopolise stories about the place, the localisation of the food system may easily be simplified as making a distinction between ‘us’ and ‘others’ and as a resistance to dependence on imports. However, this paper argues that, while the cross-border relationship is one of the concerns, the intimacy and entanglement of human society and our living environment—a state of ‘non-duality of body and earth’—is the fundamental idea. This case of Hong Kong agriculturalism demonstrates an alternative representation of sustainability different from Ingold’s critique. This vision for future urban life is not based on regarding nature as a moral and aesthetic rhetoric but on making it a pragmatic strategy for survival and putting it into practice. © 2023, Taiwan Journal of Anthropology. All Rights Reserved.</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Agro-extractivism</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>The term agro-extractivism has become synonymous with large-scale, corporate-controlled, monoculture plantation agriculture. The aim of this concept note is to clarify the extractivist dynamics in the current context of the capitalist development process. The paper surveys the development of agro-extractivism as a conceptual framework and as a feature of the contemporary political economy of agrarian change in Latin America. It briefly reflects on the potential contributions of land-based struggles to post-extractivist alternatives based on food sovereignty politics. The paper concludes by assessing the broader implications of agro-extractivism for our understanding of the agrarian question in the twenty-first century. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Food anarchy and the State monopoly on hunger</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>This article applies an anarchist lens to the food sovereignty movement. It analyzes food regimes as capitalist agriculture regimes which rely on the State’s monopoly on hunger, wherein the State relies on the dispossession of people from their land and food systems, the protection of property, and the primacy of capital. The interdependence of this State-capital-property trinity is violently enforced, and manufactures compliance through counterinsurgent strategies of social war. The State monopoly on hunger justifies a new offshoot of the larger food sovereignty movement, a prefigurative praxis which dismantles all food regimes to build new counter-worlds: food anarchy. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Food sovereignty and food security: Livelihood strategies pursued by farmers during the maize monoculture boom in Northern Thailand</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Northern Thailand is the center of a number of controversies surrounding changing cropping patterns, in particular related to deforestation driven by the expansion of maize monocropping by peasant farmers. Growing demand for maize by the global livestock industry has driven the conversion of land from forest and/or shifting cultivation to chemical-intensive maize, with associated environmental (i.e., forest encroachment and annual burning of fields) and social (i.e., farmer indebtedness) problems. Over the years, some of the same farmers have been exposed to ‘alternative development’ programs and projects, initially motivated by pressure to substitute for illegal crops and more recently by concerns over deforestation and particulate matter air pollution from the burning of crop residues. This scenario is made more heterogeneous by a variety of land tenure situations and greater or lesser degrees of community control over land and forest. Faced with varied situations, peasant families can pursue different livelihood strategies, particularly in reference to the degree to which their production is market oriented. Based on surveys and interviews with farmers in Nan and Chiang Mai provinces, over a range of the aforementioned circumstances, we contrast families who pursue what we define as food security (cash cropping to earn money to buy food), food sovereignty (primarily production for self-provisioning) or mixed (a combination of both) strategies. In terms of indicators such as indebtedness, we find greater benefits from the food sovereignty and mixed strategies, though we also find that these are limited by security of land tenure issues, as well as by the degree to which community management of resources is or is not present. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>No land for food: prevalence of food insecurity in ethnic communities enclosed by sugarcane monocrop in Colombia</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Objectives: To evaluate how the food systems in areas close to sugarcane monocrops influence the prevalence of food insecurity (FI) among three ethnic communities in the upper Cauca River basin of Colombia. Methods: We developed a mixed methodology study at three rural zones located in the departments of Cauca and Valle del Cauca, Colombia, using a household survey to establish the level of FI, and semi-structured interviews with key community actors. Results: These three ethnic communities have a high prevalence of FI (' 70%) that was found to be associated with economic income, social security, gender, the presence of minors in the home, refrigerator in operation and ownership of the land. Loss of food sovereignty was associated with the sale and rental of land. Conclusions: The sugarcane monocrop has contributed to environmental crises, spatial confinement and sociocultural disruption in ethnic territories; by renting, selling or leasing their land to the industrial production of sugarcane, traditional practices of food production and self-consumption have been profoundly transformed. Ethnic cultures are endangered, while food security and sovereignty of indigenous and black communities have been negatively affected. © 2020, Swiss School of Public Health (SSPH+).</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>From protecting peasant livelihoods to essentializing peasant agriculture: problematic trends in food sovereignty discourse</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>In response to neoliberal food and agriculture policy, peasant movements fought for increased state support of the small-farm sector. Vía Campesina now proposes agroecology and localized trade as environmental solutions to the current climate crisis by advocating for the ‘peasant way.’ This discourse is problematic because peasant farmers are not inherently supportive of local, sustainable food. Drawing on ethnographic field research with indigenous peasant communities in the rural highlands of Ecuador, this article illustrates how existing peasants practice chemical-intensive, monocrop, and export-oriented production. In using peasant as an ideal type rather than an historical ethno-class, post-development scholars essentialize peasant agriculture. © 2019, © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Homegarden commercialization: extent, household characteristics, and effect on food security and food sovereignty in Rural Indonesia</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Homegardens have long been recognized for contributing to household food security, nutritional status, and ecological sustainability in especially poor, rural areas in low-income countries. However, as markets and policies drive the commercialization of food and farming systems, and of rural livelihoods in general, it becomes increasingly difficult for small-holder farmers to maintain homegarden plots. Rather than autonomous spaces to grow food for self-consumption, farmers are transforming the land around their dwellings into an income-generating space by planting commercial crops for sale in urban and processing markets. The objective of this study was to examine homegarden commercialization in the Upper Citarum Watershed of West Java, Indonesia, and its effects on food security and food sovereignty. We employed a mixed-method approach to survey 81 village households involved in agricultural production. For quantitative analysis, we calculated a “homegarden commercialization index,” and developed indicator frameworks to examine relationships between commercialization, household food security, and food-related decision-making. Accompanied by insights from qualitative interviews, our results show that homegardens are highly commercialized, which contributes to the spread of monocultural production in the region. We argue that homegardens should be included and supported in food, agricultural, health, environmental, and rural development policy, in Indonesia and generally. © 2020, The Author(s).</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>‘Getting to the root causes of migration’ in West Africa–whose history, framing and agency counts?</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Today’s ‘irregular migration’ from Sub-Saharan Africa has its roots in decades of policies which have impoverished rural economies and dispossessed small-scale producers to make room for export-oriented monocultures. Under pressure from opportunistic xenophobic political configurations the EU is reacting by seeking to block the unwanted flow of African migrants in their home countries through measures denounced by European civil society organizations. Its long-term recipe for ‘addressing the root causes of migration’ involves using EU cooperation funds to leverage resources from private investors ‘looking for new investment opportunities in emerging markets’, thereby promoting the same model of agricultural production and global value chains that has sparked today’s migration waves. An absent voice in the debate is that of the rural organizations in the territories from which the migrants originate. This paper seeks to reframe the issues from the viewpoint of these social constituencies, to recuperate their popular history of the evolutions that have transformed a portion of rural mobility into Europe-bound irregular migration, to map relevant contemporary rural transformations and the complexities of relations they engender, and to highlight initiatives underway today to build options of dignified and remunerative rural livelihoods for young people. Setting the West Africa-Europe nexus in the context of global processes of migration governance, this paper explores the opportunities for counter-hegemonic strategizing that EU internal policy contradictions open up and suggests how convergences might be promoted among actors and spaces that are currently inadequately connected with a view to defending both the right to migrate and the right to choose to stay at home. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>European transitions towards a corporate-environmental food regime: Agroecological incorporation or contestation?</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C111" t="n">
         <v>2015</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>The 'food regime' concept helps to analyse potential transitions beyond the agro-industrial regime which has been globally dominant since the 1970s. As its multiple crises generate alternative production methods and products, some have been incorporated into a nascent 'corporate-environmental food regime'. This nascent regime is illustrated here by two agendas prominent in Europe - 'bioeconomy' (Life Sciences) and 'sustainable intensification' (neoproductivism). As a significant difference, the prevalent 'bioeconomy' agenda marginalises agroecological practices, while 'sustainable intensification' selectively incorporates such practices within a broader toolkit including biotech. Regardless of that difference, both agendas reinforce a neoliberal productivist narrative: namely, more resource-efficient methods are necessary for increasing production to fulfill the greater market demand for food, feed, fuel, etc. In this way, the capital-accumulation driver is reified as 'market demand' arising exogenously from the food production system - which thereby accommodates societal needs. By contrast, the agroecology narrative diagnoses the problem as profit-driven agro-industrial monoculture systems making farmers dependent on external inputs, undermining their knowledge, and distancing consumers from agri-producers. Through such a narrative, new alliances have elaborated a different future linking farmers' knowledge-exchange, agroecology, food sovereignty, citizens' initiatives, public knowledge about food production, etc. Civil society organisations have facilitated such linkages among researchers, scientists and social movements. In those ways, contending narratives justify different trajectories for an agro-food transition. Each links different innovation paradigms of technique, quality and knowledge. These differences often remain implicit amidst broad terms such as bioeconomy, sustainable intensification, agroecology, etc. Making the divergences explicit can help contest transitions towards a corporate-environmental food regime, while also counterposing agroecological alternatives. © 2015 Elsevier Ltd.</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>_</t>
         </is>

--- a/literature_research/FS_scopus/FS_bioculture.xlsx
+++ b/literature_research/FS_scopus/FS_bioculture.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
